--- a/OYM/_DocumentosComunes/BD.xlsx
+++ b/OYM/_DocumentosComunes/BD.xlsx
@@ -623,7 +623,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -633,42 +633,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,31 +650,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1108,8 +1074,8 @@
   <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1130,14 +1096,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1146,34 +1112,34 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1">
-        <v>2</v>
-      </c>
-      <c r="J1">
+      <c r="I1" s="3">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3">
         <v>3</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="3">
         <v>4</v>
       </c>
-      <c r="L1">
-        <v>5</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="3">
+        <v>5</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1187,45 +1153,45 @@
       <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="7">
         <f>H2+I2+J2+K2+L2</f>
         <v>10</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="7">
         <f>M2+N2+O2+P2</f>
         <v>20</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="7">
         <v>20</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="7">
         <v>50</v>
       </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
-      <c r="N2">
-        <v>5</v>
-      </c>
-      <c r="O2">
-        <v>5</v>
-      </c>
-      <c r="P2">
+      <c r="H2" s="3">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3">
+        <v>2</v>
+      </c>
+      <c r="M2" s="3">
+        <v>5</v>
+      </c>
+      <c r="N2" s="3">
+        <v>5</v>
+      </c>
+      <c r="O2" s="3">
+        <v>5</v>
+      </c>
+      <c r="P2" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1239,19 +1205,27 @@
       <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="7">
         <f t="shared" ref="D3:D66" si="0">H3+I3+J3+K3+L3</f>
         <v>2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="7">
         <f t="shared" ref="E3:E66" si="1">M3+N3+O3+P3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="4"/>
-      <c r="H3">
-        <v>2</v>
-      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
@@ -1263,19 +1237,27 @@
       <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E4" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4"/>
-      <c r="H4">
-        <v>2</v>
-      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
@@ -1287,19 +1269,27 @@
       <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4"/>
-      <c r="H5">
-        <v>2</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
@@ -1311,22 +1301,29 @@
       <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="4"/>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="M6">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
         <v>4</v>
       </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
@@ -1338,19 +1335,27 @@
       <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E7" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="4"/>
-      <c r="H7">
-        <v>2</v>
-      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
@@ -1362,19 +1367,27 @@
       <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E8" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
-      <c r="H8">
-        <v>2</v>
-      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="3">
+        <v>2</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
@@ -1386,19 +1399,29 @@
       <c r="C9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="4"/>
-      <c r="H9">
-        <v>2</v>
-      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="3">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
@@ -1410,19 +1433,27 @@
       <c r="C10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E10" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4"/>
-      <c r="H10">
-        <v>2</v>
-      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
@@ -1434,22 +1465,29 @@
       <c r="C11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="4"/>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="M11">
-        <v>5</v>
-      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="3">
+        <v>2</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3">
+        <v>5</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
@@ -1461,19 +1499,27 @@
       <c r="C12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E12" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="4"/>
-      <c r="H12">
-        <v>2</v>
-      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
@@ -1485,19 +1531,27 @@
       <c r="C13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="4"/>
-      <c r="H13">
-        <v>2</v>
-      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="3">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
@@ -1509,19 +1563,27 @@
       <c r="C14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="4"/>
-      <c r="H14">
-        <v>2</v>
-      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
@@ -1533,22 +1595,29 @@
       <c r="C15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="4"/>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="M15">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="3">
+        <v>2</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3">
         <v>4</v>
       </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
@@ -1560,24 +1629,31 @@
       <c r="C16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E16" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="4"/>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="M16">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="3">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -1587,24 +1663,31 @@
       <c r="C17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="4"/>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="M17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="3">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -1614,21 +1697,29 @@
       <c r="C18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="4"/>
-      <c r="H18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="3">
+        <v>2</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -1638,21 +1729,29 @@
       <c r="C19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E19" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="4"/>
-      <c r="H19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="3">
+        <v>2</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -1662,21 +1761,29 @@
       <c r="C20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D20" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E20" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="4"/>
-      <c r="H20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="3">
+        <v>2</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -1686,24 +1793,31 @@
       <c r="C21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="4"/>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="3">
+        <v>2</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3">
+        <v>2</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -1713,21 +1827,29 @@
       <c r="C22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E22" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="4"/>
-      <c r="H22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="3">
+        <v>2</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -1737,24 +1859,31 @@
       <c r="C23" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="4"/>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="M23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="3">
+        <v>2</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -1764,21 +1893,29 @@
       <c r="C24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E24" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="4"/>
-      <c r="H24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="3">
+        <v>2</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -1788,24 +1925,31 @@
       <c r="C25" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="4"/>
-      <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="M25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="3">
+        <v>2</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3">
+        <v>5</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -1815,24 +1959,31 @@
       <c r="C26" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="4"/>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="M26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="3">
+        <v>2</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -1842,21 +1993,31 @@
       <c r="C27" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="4"/>
-      <c r="H27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="3">
+        <v>2</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3">
+        <v>4</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -1866,24 +2027,31 @@
       <c r="C28" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="D28" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E28" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="4"/>
-      <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="M28">
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="3">
+        <v>2</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -1893,24 +2061,31 @@
       <c r="C29" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="D29" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E29" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="4"/>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="M29">
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="3">
+        <v>2</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -1920,24 +2095,31 @@
       <c r="C30" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="4"/>
-      <c r="H30">
-        <v>2</v>
-      </c>
-      <c r="M30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="3">
+        <v>2</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3">
+        <v>5</v>
+      </c>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -1947,21 +2129,29 @@
       <c r="C31" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="D31" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E31" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="4"/>
-      <c r="H31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="3">
+        <v>2</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -1971,24 +2161,33 @@
       <c r="C32" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="D32" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E32" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="4"/>
-      <c r="H32">
-        <v>2</v>
-      </c>
-      <c r="M32">
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="3">
+        <v>2</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -1998,21 +2197,29 @@
       <c r="C33" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="D33" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E33" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="4"/>
-      <c r="H33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="3">
+        <v>2</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -2022,21 +2229,29 @@
       <c r="C34" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="D34" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E34" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="4"/>
-      <c r="H34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="3">
+        <v>2</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -2046,21 +2261,29 @@
       <c r="C35" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E35" s="2">
+      <c r="D35" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E35" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="4"/>
-      <c r="H35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="3">
+        <v>2</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -2070,24 +2293,31 @@
       <c r="C36" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="D36" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E36" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="4"/>
-      <c r="H36">
-        <v>2</v>
-      </c>
-      <c r="M36">
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="3">
+        <v>2</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -2097,24 +2327,31 @@
       <c r="C37" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="D37" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E37" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="4"/>
-      <c r="H37">
-        <v>2</v>
-      </c>
-      <c r="M37">
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="3">
+        <v>2</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -2124,24 +2361,31 @@
       <c r="C38" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E38" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="4"/>
-      <c r="H38">
-        <v>2</v>
-      </c>
-      <c r="M38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D38" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E38" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="3">
+        <v>2</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3">
+        <v>5</v>
+      </c>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -2151,24 +2395,31 @@
       <c r="C39" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="4"/>
-      <c r="H39">
-        <v>2</v>
-      </c>
-      <c r="M39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E39" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="3">
+        <v>2</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3">
+        <v>2</v>
+      </c>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -2178,24 +2429,31 @@
       <c r="C40" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E40" s="2">
+      <c r="D40" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E40" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="4"/>
-      <c r="H40">
-        <v>2</v>
-      </c>
-      <c r="M40">
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="3">
+        <v>2</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>39</v>
       </c>
@@ -2205,24 +2463,31 @@
       <c r="C41" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E41" s="2">
+      <c r="D41" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E41" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="4"/>
-      <c r="H41">
-        <v>2</v>
-      </c>
-      <c r="M41">
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="3">
+        <v>2</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -2232,24 +2497,31 @@
       <c r="C42" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E42" s="2">
+      <c r="D42" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E42" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="4"/>
-      <c r="H42">
-        <v>2</v>
-      </c>
-      <c r="M42">
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="3">
+        <v>2</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -2259,21 +2531,29 @@
       <c r="C43" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E43" s="2">
+      <c r="D43" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E43" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="4"/>
-      <c r="H43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="3">
+        <v>2</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -2283,24 +2563,33 @@
       <c r="C44" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E44" s="2">
-        <f t="shared" si="1"/>
+      <c r="D44" s="7">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="4"/>
-      <c r="H44">
-        <v>2</v>
-      </c>
-      <c r="M44">
+      <c r="E44" s="7">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="3">
+        <v>2</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43</v>
       </c>
@@ -2310,24 +2599,31 @@
       <c r="C45" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E45" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="4"/>
-      <c r="H45">
-        <v>2</v>
-      </c>
-      <c r="M45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D45" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E45" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="3">
+        <v>2</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -2337,21 +2633,29 @@
       <c r="C46" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E46" s="2">
+      <c r="D46" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E46" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="4"/>
-      <c r="H46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="3">
+        <v>2</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -2361,24 +2665,31 @@
       <c r="C47" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E47" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="4"/>
-      <c r="H47">
-        <v>2</v>
-      </c>
-      <c r="M47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D47" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E47" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="3">
+        <v>2</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -2388,21 +2699,31 @@
       <c r="C48" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E48" s="2">
+      <c r="D48" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E48" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="4"/>
-      <c r="H48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="3">
+        <v>2</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>47</v>
       </c>
@@ -2412,24 +2733,31 @@
       <c r="C49" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E49" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="4"/>
-      <c r="H49">
-        <v>2</v>
-      </c>
-      <c r="M49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E49" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="3">
+        <v>2</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -2439,21 +2767,29 @@
       <c r="C50" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E50" s="2">
+      <c r="D50" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E50" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="4"/>
-      <c r="H50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="3">
+        <v>2</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>49</v>
       </c>
@@ -2463,21 +2799,29 @@
       <c r="C51" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D51" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E51" s="2">
+      <c r="D51" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E51" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="4"/>
-      <c r="H51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="3">
+        <v>2</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -2487,24 +2831,31 @@
       <c r="C52" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E52" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="4"/>
-      <c r="H52">
-        <v>2</v>
-      </c>
-      <c r="M52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D52" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E52" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="3">
+        <v>2</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>51</v>
       </c>
@@ -2514,21 +2865,29 @@
       <c r="C53" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E53" s="2">
+      <c r="D53" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E53" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="4"/>
-      <c r="H53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="3">
+        <v>2</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>52</v>
       </c>
@@ -2538,21 +2897,29 @@
       <c r="C54" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D54" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E54" s="2">
+      <c r="D54" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E54" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F54" s="2"/>
-      <c r="G54" s="4"/>
-      <c r="H54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="3">
+        <v>2</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>53</v>
       </c>
@@ -2562,24 +2929,31 @@
       <c r="C55" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D55" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E55" s="2">
+      <c r="D55" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E55" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="4"/>
-      <c r="H55">
-        <v>2</v>
-      </c>
-      <c r="M55">
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="3">
+        <v>2</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -2589,21 +2963,31 @@
       <c r="C56" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D56" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E56" s="2">
+      <c r="D56" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E56" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F56" s="2"/>
-      <c r="G56" s="4"/>
-      <c r="H56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="3">
+        <v>2</v>
+      </c>
+      <c r="I56" s="3">
+        <v>2</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -2613,21 +2997,29 @@
       <c r="C57" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E57" s="2">
+      <c r="D57" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E57" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="4"/>
-      <c r="H57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="3">
+        <v>2</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -2637,24 +3029,31 @@
       <c r="C58" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D58" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E58" s="2">
+      <c r="D58" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E58" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="4"/>
-      <c r="H58">
-        <v>2</v>
-      </c>
-      <c r="M58">
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="3">
+        <v>2</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -2664,24 +3063,31 @@
       <c r="C59" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E59" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F59" s="2"/>
-      <c r="G59" s="4"/>
-      <c r="H59">
-        <v>2</v>
-      </c>
-      <c r="M59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D59" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E59" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="3">
+        <v>2</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -2691,24 +3097,31 @@
       <c r="C60" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D60" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E60" s="2">
+      <c r="D60" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E60" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="4"/>
-      <c r="H60">
-        <v>2</v>
-      </c>
-      <c r="M60">
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="3">
+        <v>2</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>59</v>
       </c>
@@ -2718,24 +3131,31 @@
       <c r="C61" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D61" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E61" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F61" s="2"/>
-      <c r="G61" s="4"/>
-      <c r="H61">
-        <v>2</v>
-      </c>
-      <c r="M61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D61" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E61" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="3">
+        <v>2</v>
+      </c>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3">
+        <v>5</v>
+      </c>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -2745,21 +3165,29 @@
       <c r="C62" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D62" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E62" s="2">
+      <c r="D62" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E62" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="4"/>
-      <c r="H62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="3">
+        <v>2</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>61</v>
       </c>
@@ -2769,24 +3197,31 @@
       <c r="C63" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D63" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E63" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="4"/>
-      <c r="H63">
-        <v>2</v>
-      </c>
-      <c r="M63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D63" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E63" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="3">
+        <v>2</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3">
+        <v>5</v>
+      </c>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>62</v>
       </c>
@@ -2796,24 +3231,31 @@
       <c r="C64" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D64" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E64" s="2">
+      <c r="D64" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E64" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F64" s="2"/>
-      <c r="G64" s="4"/>
-      <c r="H64">
-        <v>2</v>
-      </c>
-      <c r="M64">
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="3">
+        <v>2</v>
+      </c>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>63</v>
       </c>
@@ -2823,21 +3265,31 @@
       <c r="C65" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D65" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E65" s="2">
+      <c r="D65" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E65" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="4"/>
-      <c r="H65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="3">
+        <v>2</v>
+      </c>
+      <c r="I65" s="3">
+        <v>2</v>
+      </c>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>64</v>
       </c>
@@ -2847,21 +3299,29 @@
       <c r="C66" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D66" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E66" s="2">
+      <c r="D66" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E66" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="4"/>
-      <c r="H66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="3">
+        <v>2</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>65</v>
       </c>
@@ -2871,24 +3331,31 @@
       <c r="C67" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="7">
         <f t="shared" ref="D67:D88" si="2">H67+I67+J67+K67+L67</f>
         <v>2</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="7">
         <f t="shared" ref="E67:E88" si="3">M67+N67+O67+P67</f>
         <v>4</v>
       </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="4"/>
-      <c r="H67">
-        <v>2</v>
-      </c>
-      <c r="M67">
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="3">
+        <v>2</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>66</v>
       </c>
@@ -2898,24 +3365,31 @@
       <c r="C68" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="7">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="F68" s="2"/>
-      <c r="G68" s="4"/>
-      <c r="H68">
-        <v>2</v>
-      </c>
-      <c r="M68">
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="3">
+        <v>2</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>67</v>
       </c>
@@ -2925,24 +3399,31 @@
       <c r="C69" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="7">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="4"/>
-      <c r="H69">
-        <v>2</v>
-      </c>
-      <c r="M69">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="3">
+        <v>2</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3">
+        <v>5</v>
+      </c>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>68</v>
       </c>
@@ -2952,21 +3433,29 @@
       <c r="C70" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="4"/>
-      <c r="H70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="3">
+        <v>2</v>
+      </c>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>69</v>
       </c>
@@ -2976,21 +3465,29 @@
       <c r="C71" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F71" s="2"/>
-      <c r="G71" s="4"/>
-      <c r="H71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="3">
+        <v>2</v>
+      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>70</v>
       </c>
@@ -3000,21 +3497,31 @@
       <c r="C72" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E72" s="2">
+        <v>4</v>
+      </c>
+      <c r="E72" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F72" s="2"/>
-      <c r="G72" s="4"/>
-      <c r="H72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="3">
+        <v>2</v>
+      </c>
+      <c r="I72" s="3">
+        <v>2</v>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>71</v>
       </c>
@@ -3024,24 +3531,31 @@
       <c r="C73" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="7">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="F73" s="2"/>
-      <c r="G73" s="4"/>
-      <c r="H73">
-        <v>2</v>
-      </c>
-      <c r="M73">
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="3">
+        <v>2</v>
+      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -3051,24 +3565,33 @@
       <c r="C74" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E74" s="2">
+        <v>4</v>
+      </c>
+      <c r="E74" s="7">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="F74" s="2"/>
-      <c r="G74" s="4"/>
-      <c r="H74">
-        <v>2</v>
-      </c>
-      <c r="M74">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="3">
+        <v>2</v>
+      </c>
+      <c r="I74" s="3">
+        <v>2</v>
+      </c>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3">
+        <v>5</v>
+      </c>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>73</v>
       </c>
@@ -3078,24 +3601,31 @@
       <c r="C75" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="7">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="F75" s="2"/>
-      <c r="G75" s="4"/>
-      <c r="H75">
-        <v>2</v>
-      </c>
-      <c r="M75">
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="3">
+        <v>2</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>74</v>
       </c>
@@ -3105,21 +3635,29 @@
       <c r="C76" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F76" s="2"/>
-      <c r="G76" s="4"/>
-      <c r="H76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="3">
+        <v>2</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>75</v>
       </c>
@@ -3129,24 +3667,31 @@
       <c r="C77" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="7">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="F77" s="2"/>
-      <c r="G77" s="4"/>
-      <c r="H77">
-        <v>2</v>
-      </c>
-      <c r="M77">
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="3">
+        <v>2</v>
+      </c>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="78" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>76</v>
       </c>
@@ -3156,21 +3701,29 @@
       <c r="C78" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="4"/>
-      <c r="H78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="3">
+        <v>2</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+    </row>
+    <row r="79" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>77</v>
       </c>
@@ -3180,24 +3733,31 @@
       <c r="C79" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="7">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="F79" s="2"/>
-      <c r="G79" s="4"/>
-      <c r="H79">
-        <v>2</v>
-      </c>
-      <c r="M79">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="3">
+        <v>2</v>
+      </c>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3">
+        <v>5</v>
+      </c>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+    </row>
+    <row r="80" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>78</v>
       </c>
@@ -3207,24 +3767,31 @@
       <c r="C80" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F80" s="2"/>
-      <c r="G80" s="4"/>
-      <c r="H80">
-        <v>2</v>
-      </c>
-      <c r="M80">
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="3">
+        <v>2</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+    </row>
+    <row r="81" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>79</v>
       </c>
@@ -3234,21 +3801,31 @@
       <c r="C81" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E81" s="2">
+        <v>4</v>
+      </c>
+      <c r="E81" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F81" s="2"/>
-      <c r="G81" s="4"/>
-      <c r="H81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="3">
+        <v>2</v>
+      </c>
+      <c r="I81" s="3">
+        <v>2</v>
+      </c>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>80</v>
       </c>
@@ -3258,24 +3835,31 @@
       <c r="C82" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="7">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="F82" s="2"/>
-      <c r="G82" s="4"/>
-      <c r="H82">
-        <v>2</v>
-      </c>
-      <c r="M82">
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="3">
+        <v>2</v>
+      </c>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>81</v>
       </c>
@@ -3285,24 +3869,33 @@
       <c r="C83" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E83" s="2">
+        <v>4</v>
+      </c>
+      <c r="E83" s="7">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="F83" s="2"/>
-      <c r="G83" s="4"/>
-      <c r="H83">
-        <v>2</v>
-      </c>
-      <c r="M83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="3">
+        <v>2</v>
+      </c>
+      <c r="I83" s="3">
+        <v>2</v>
+      </c>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>82</v>
       </c>
@@ -3312,24 +3905,31 @@
       <c r="C84" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="7">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="F84" s="2"/>
-      <c r="G84" s="4"/>
-      <c r="H84">
-        <v>2</v>
-      </c>
-      <c r="M84">
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="3">
+        <v>2</v>
+      </c>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>83</v>
       </c>
@@ -3339,24 +3939,33 @@
       <c r="C85" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E85" s="2">
+        <v>4</v>
+      </c>
+      <c r="E85" s="7">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="F85" s="2"/>
-      <c r="G85" s="4"/>
-      <c r="H85">
-        <v>2</v>
-      </c>
-      <c r="M85">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="3">
+        <v>2</v>
+      </c>
+      <c r="I85" s="3">
+        <v>2</v>
+      </c>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3">
+        <v>5</v>
+      </c>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>84</v>
       </c>
@@ -3366,24 +3975,31 @@
       <c r="C86" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="7">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="F86" s="2"/>
-      <c r="G86" s="4"/>
-      <c r="H86">
-        <v>2</v>
-      </c>
-      <c r="M86">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="3">
+        <v>2</v>
+      </c>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3">
+        <v>5</v>
+      </c>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>85</v>
       </c>
@@ -3393,24 +4009,31 @@
       <c r="C87" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="7">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="F87" s="2"/>
-      <c r="G87" s="4"/>
-      <c r="H87">
-        <v>2</v>
-      </c>
-      <c r="M87">
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="3">
+        <v>2</v>
+      </c>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>86</v>
       </c>
@@ -3420,19 +4043,27 @@
       <c r="C88" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F88" s="2"/>
-      <c r="G88" s="4"/>
-      <c r="H88">
-        <v>2</v>
-      </c>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="3">
+        <v>2</v>
+      </c>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>

--- a/OYM/_DocumentosComunes/BD.xlsx
+++ b/OYM/_DocumentosComunes/BD.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2792F85F-3E92-49CF-BA74-0A1179241E40}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$M$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$88</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -583,7 +584,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1067,18 +1068,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N69" sqref="N69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -1086,10 +1087,10 @@
     <col min="4" max="4" width="6.7109375" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" customWidth="1"/>
     <col min="6" max="7" width="6.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" customWidth="1"/>
-    <col min="11" max="12" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" customWidth="1"/>
+    <col min="10" max="11" width="4.5703125" customWidth="1"/>
+    <col min="12" max="12" width="5" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.42578125" customWidth="1"/>
     <col min="15" max="15" width="8.42578125" customWidth="1"/>
@@ -1341,7 +1342,7 @@
       </c>
       <c r="E7" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1353,7 +1354,9 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="N7" s="3">
+        <v>5</v>
+      </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
@@ -1405,7 +1408,7 @@
       </c>
       <c r="E9" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1419,7 +1422,9 @@
       <c r="M9" s="3">
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
+      <c r="N9" s="3">
+        <v>5</v>
+      </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
@@ -1439,7 +1444,7 @@
       </c>
       <c r="E10" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1451,7 +1456,9 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="N10" s="3">
+        <v>5</v>
+      </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
@@ -1505,7 +1512,7 @@
       </c>
       <c r="E12" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1517,7 +1524,9 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="N12" s="3">
+        <v>5</v>
+      </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
@@ -1569,7 +1578,7 @@
       </c>
       <c r="E14" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1581,7 +1590,9 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="N14" s="3">
+        <v>5</v>
+      </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
@@ -1635,7 +1646,7 @@
       </c>
       <c r="E16" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1649,7 +1660,9 @@
       <c r="M16" s="3">
         <v>3</v>
       </c>
-      <c r="N16" s="3"/>
+      <c r="N16" s="3">
+        <v>5</v>
+      </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
     </row>
@@ -1799,7 +1812,7 @@
       </c>
       <c r="E21" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -1813,7 +1826,9 @@
       <c r="M21" s="3">
         <v>2</v>
       </c>
-      <c r="N21" s="3"/>
+      <c r="N21" s="3">
+        <v>5</v>
+      </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
@@ -1833,7 +1848,7 @@
       </c>
       <c r="E22" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -1845,7 +1860,9 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="N22" s="3">
+        <v>5</v>
+      </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
     </row>
@@ -1865,7 +1882,7 @@
       </c>
       <c r="E23" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -1879,7 +1896,9 @@
       <c r="M23" s="3">
         <v>5</v>
       </c>
-      <c r="N23" s="3"/>
+      <c r="N23" s="3">
+        <v>5</v>
+      </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
@@ -1899,7 +1918,7 @@
       </c>
       <c r="E24" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -1911,7 +1930,9 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="N24" s="3">
+        <v>5</v>
+      </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
@@ -1931,7 +1952,7 @@
       </c>
       <c r="E25" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -1945,7 +1966,9 @@
       <c r="M25" s="3">
         <v>5</v>
       </c>
-      <c r="N25" s="3"/>
+      <c r="N25" s="3">
+        <v>5</v>
+      </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
@@ -2033,7 +2056,7 @@
       </c>
       <c r="E28" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -2047,7 +2070,9 @@
       <c r="M28" s="3">
         <v>4</v>
       </c>
-      <c r="N28" s="3"/>
+      <c r="N28" s="3">
+        <v>5</v>
+      </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
@@ -2067,7 +2092,7 @@
       </c>
       <c r="E29" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -2081,7 +2106,9 @@
       <c r="M29" s="3">
         <v>3</v>
       </c>
-      <c r="N29" s="3"/>
+      <c r="N29" s="3">
+        <v>5</v>
+      </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
     </row>
@@ -2101,7 +2128,7 @@
       </c>
       <c r="E30" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -2115,7 +2142,9 @@
       <c r="M30" s="3">
         <v>5</v>
       </c>
-      <c r="N30" s="3"/>
+      <c r="N30" s="3">
+        <v>5</v>
+      </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
     </row>
@@ -2167,7 +2196,7 @@
       </c>
       <c r="E32" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -2183,7 +2212,9 @@
       <c r="M32" s="3">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
+      <c r="N32" s="3">
+        <v>5</v>
+      </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
     </row>
@@ -2203,7 +2234,7 @@
       </c>
       <c r="E33" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -2215,7 +2246,9 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="N33" s="3">
+        <v>5</v>
+      </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
     </row>
@@ -2235,7 +2268,7 @@
       </c>
       <c r="E34" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -2247,7 +2280,9 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+      <c r="N34" s="3">
+        <v>5</v>
+      </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
     </row>
@@ -2267,7 +2302,7 @@
       </c>
       <c r="E35" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -2279,7 +2314,9 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="N35" s="3">
+        <v>5</v>
+      </c>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
     </row>
@@ -2299,7 +2336,7 @@
       </c>
       <c r="E36" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
@@ -2313,7 +2350,9 @@
       <c r="M36" s="3">
         <v>3</v>
       </c>
-      <c r="N36" s="3"/>
+      <c r="N36" s="3">
+        <v>5</v>
+      </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
     </row>
@@ -2333,7 +2372,7 @@
       </c>
       <c r="E37" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -2347,7 +2386,9 @@
       <c r="M37" s="3">
         <v>3</v>
       </c>
-      <c r="N37" s="3"/>
+      <c r="N37" s="3">
+        <v>5</v>
+      </c>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
     </row>
@@ -2401,7 +2442,7 @@
       </c>
       <c r="E39" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
@@ -2415,7 +2456,9 @@
       <c r="M39" s="3">
         <v>2</v>
       </c>
-      <c r="N39" s="3"/>
+      <c r="N39" s="3">
+        <v>5</v>
+      </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
     </row>
@@ -2469,7 +2512,7 @@
       </c>
       <c r="E41" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -2483,7 +2526,9 @@
       <c r="M41" s="3">
         <v>4</v>
       </c>
-      <c r="N41" s="3"/>
+      <c r="N41" s="3">
+        <v>5</v>
+      </c>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
     </row>
@@ -2605,7 +2650,7 @@
       </c>
       <c r="E45" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -2619,7 +2664,9 @@
       <c r="M45" s="3">
         <v>5</v>
       </c>
-      <c r="N45" s="3"/>
+      <c r="N45" s="3">
+        <v>5</v>
+      </c>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
     </row>
@@ -2639,7 +2686,7 @@
       </c>
       <c r="E46" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -2651,7 +2698,9 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
+      <c r="N46" s="3">
+        <v>5</v>
+      </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
     </row>
@@ -2739,7 +2788,7 @@
       </c>
       <c r="E49" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -2753,7 +2802,9 @@
       <c r="M49" s="3">
         <v>5</v>
       </c>
-      <c r="N49" s="3"/>
+      <c r="N49" s="3">
+        <v>5</v>
+      </c>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
     </row>
@@ -2773,7 +2824,7 @@
       </c>
       <c r="E50" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
@@ -2785,7 +2836,9 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
+      <c r="N50" s="3">
+        <v>5</v>
+      </c>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
     </row>
@@ -2805,7 +2858,7 @@
       </c>
       <c r="E51" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -2817,7 +2870,9 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
+      <c r="N51" s="3">
+        <v>5</v>
+      </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
     </row>
@@ -2871,7 +2926,7 @@
       </c>
       <c r="E53" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
@@ -2883,7 +2938,9 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
+      <c r="N53" s="3">
+        <v>5</v>
+      </c>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
     </row>
@@ -2969,7 +3026,7 @@
       </c>
       <c r="E56" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
@@ -2983,7 +3040,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
+      <c r="N56" s="3">
+        <v>5</v>
+      </c>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
     </row>
@@ -3003,7 +3062,7 @@
       </c>
       <c r="E57" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
@@ -3015,7 +3074,9 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
+      <c r="N57" s="3">
+        <v>5</v>
+      </c>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
     </row>
@@ -3069,7 +3130,7 @@
       </c>
       <c r="E59" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
@@ -3083,7 +3144,9 @@
       <c r="M59" s="3">
         <v>5</v>
       </c>
-      <c r="N59" s="3"/>
+      <c r="N59" s="3">
+        <v>5</v>
+      </c>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
     </row>
@@ -3171,7 +3234,7 @@
       </c>
       <c r="E62" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
@@ -3183,7 +3246,9 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
+      <c r="N62" s="3">
+        <v>5</v>
+      </c>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
     </row>
@@ -3203,7 +3268,7 @@
       </c>
       <c r="E63" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
@@ -3217,7 +3282,9 @@
       <c r="M63" s="3">
         <v>5</v>
       </c>
-      <c r="N63" s="3"/>
+      <c r="N63" s="3">
+        <v>5</v>
+      </c>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
     </row>
@@ -3305,7 +3372,7 @@
       </c>
       <c r="E66" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
@@ -3317,7 +3384,9 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
+      <c r="N66" s="3">
+        <v>5</v>
+      </c>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
     </row>
@@ -3337,7 +3406,7 @@
       </c>
       <c r="E67" s="7">
         <f t="shared" ref="E67:E88" si="3">M67+N67+O67+P67</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
@@ -3351,7 +3420,9 @@
       <c r="M67" s="3">
         <v>4</v>
       </c>
-      <c r="N67" s="3"/>
+      <c r="N67" s="3">
+        <v>5</v>
+      </c>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
     </row>
@@ -3405,7 +3476,7 @@
       </c>
       <c r="E69" s="7">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
@@ -3419,7 +3490,9 @@
       <c r="M69" s="3">
         <v>5</v>
       </c>
-      <c r="N69" s="3"/>
+      <c r="N69" s="3">
+        <v>5</v>
+      </c>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
     </row>
@@ -3471,7 +3544,7 @@
       </c>
       <c r="E71" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
@@ -3483,7 +3556,9 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
+      <c r="N71" s="3">
+        <v>5</v>
+      </c>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
     </row>
@@ -3503,7 +3578,7 @@
       </c>
       <c r="E72" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
@@ -3517,7 +3592,9 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
+      <c r="N72" s="3">
+        <v>5</v>
+      </c>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
     </row>
@@ -3537,7 +3614,7 @@
       </c>
       <c r="E73" s="7">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
@@ -3551,7 +3628,9 @@
       <c r="M73" s="3">
         <v>4</v>
       </c>
-      <c r="N73" s="3"/>
+      <c r="N73" s="3">
+        <v>5</v>
+      </c>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
     </row>
@@ -3571,7 +3650,7 @@
       </c>
       <c r="E74" s="7">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
@@ -3587,7 +3666,9 @@
       <c r="M74" s="3">
         <v>5</v>
       </c>
-      <c r="N74" s="3"/>
+      <c r="N74" s="3">
+        <v>5</v>
+      </c>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
     </row>
@@ -3607,7 +3688,7 @@
       </c>
       <c r="E75" s="7">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
@@ -3621,7 +3702,9 @@
       <c r="M75" s="3">
         <v>4</v>
       </c>
-      <c r="N75" s="3"/>
+      <c r="N75" s="3">
+        <v>5</v>
+      </c>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
     </row>
@@ -3673,7 +3756,7 @@
       </c>
       <c r="E77" s="7">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
@@ -3687,7 +3770,9 @@
       <c r="M77" s="3">
         <v>4</v>
       </c>
-      <c r="N77" s="3"/>
+      <c r="N77" s="3">
+        <v>5</v>
+      </c>
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
     </row>
@@ -3739,7 +3824,7 @@
       </c>
       <c r="E79" s="7">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
@@ -3753,7 +3838,9 @@
       <c r="M79" s="3">
         <v>5</v>
       </c>
-      <c r="N79" s="3"/>
+      <c r="N79" s="3">
+        <v>5</v>
+      </c>
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
     </row>
@@ -3773,7 +3860,7 @@
       </c>
       <c r="E80" s="7">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
@@ -3787,7 +3874,9 @@
       <c r="M80" s="3">
         <v>1</v>
       </c>
-      <c r="N80" s="3"/>
+      <c r="N80" s="3">
+        <v>5</v>
+      </c>
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
     </row>
@@ -3841,7 +3930,7 @@
       </c>
       <c r="E82" s="7">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
@@ -3855,7 +3944,9 @@
       <c r="M82" s="3">
         <v>3</v>
       </c>
-      <c r="N82" s="3"/>
+      <c r="N82" s="3">
+        <v>5</v>
+      </c>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
     </row>
@@ -3875,7 +3966,7 @@
       </c>
       <c r="E83" s="7">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
@@ -3891,7 +3982,9 @@
       <c r="M83" s="3">
         <v>5</v>
       </c>
-      <c r="N83" s="3"/>
+      <c r="N83" s="3">
+        <v>5</v>
+      </c>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
     </row>
@@ -3911,7 +4004,7 @@
       </c>
       <c r="E84" s="7">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
@@ -3925,7 +4018,9 @@
       <c r="M84" s="3">
         <v>4</v>
       </c>
-      <c r="N84" s="3"/>
+      <c r="N84" s="3">
+        <v>5</v>
+      </c>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
     </row>
@@ -3945,7 +4040,7 @@
       </c>
       <c r="E85" s="7">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
@@ -3961,7 +4056,9 @@
       <c r="M85" s="3">
         <v>5</v>
       </c>
-      <c r="N85" s="3"/>
+      <c r="N85" s="3">
+        <v>5</v>
+      </c>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
     </row>
@@ -3981,7 +4078,7 @@
       </c>
       <c r="E86" s="7">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
@@ -3995,7 +4092,9 @@
       <c r="M86" s="3">
         <v>5</v>
       </c>
-      <c r="N86" s="3"/>
+      <c r="N86" s="3">
+        <v>5</v>
+      </c>
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
     </row>
@@ -4015,7 +4114,7 @@
       </c>
       <c r="E87" s="7">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
@@ -4029,7 +4128,9 @@
       <c r="M87" s="3">
         <v>4</v>
       </c>
-      <c r="N87" s="3"/>
+      <c r="N87" s="3">
+        <v>5</v>
+      </c>
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
     </row>

--- a/OYM/_DocumentosComunes/BD.xlsx
+++ b/OYM/_DocumentosComunes/BD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DESARROLLO\DoCUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2792F85F-3E92-49CF-BA74-0A1179241E40}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE29BA0-EA5C-40D8-BDC7-A271C8915240}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1076,7 +1076,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N69" sqref="N69"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1751,7 +1751,9 @@
         <v>0</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7">
+        <v>30</v>
+      </c>
       <c r="H19" s="3">
         <v>2</v>
       </c>
@@ -1851,7 +1853,9 @@
         <v>5</v>
       </c>
       <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="G22" s="7">
+        <v>50</v>
+      </c>
       <c r="H22" s="3">
         <v>2</v>
       </c>
@@ -1921,7 +1925,9 @@
         <v>5</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7">
+        <v>40</v>
+      </c>
       <c r="H24" s="3">
         <v>2</v>
       </c>
@@ -2095,7 +2101,9 @@
         <v>8</v>
       </c>
       <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="G29" s="7">
+        <v>40</v>
+      </c>
       <c r="H29" s="3">
         <v>2</v>
       </c>
@@ -2237,7 +2245,9 @@
         <v>5</v>
       </c>
       <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="G33" s="7">
+        <v>40</v>
+      </c>
       <c r="H33" s="3">
         <v>2</v>
       </c>
@@ -2305,7 +2315,9 @@
         <v>5</v>
       </c>
       <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="G35" s="7">
+        <v>50</v>
+      </c>
       <c r="H35" s="3">
         <v>2</v>
       </c>
@@ -2411,7 +2423,9 @@
         <v>5</v>
       </c>
       <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+      <c r="G38" s="7">
+        <v>50</v>
+      </c>
       <c r="H38" s="3">
         <v>2</v>
       </c>
@@ -2653,7 +2667,9 @@
         <v>10</v>
       </c>
       <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
+      <c r="G45" s="7">
+        <v>40</v>
+      </c>
       <c r="H45" s="3">
         <v>2</v>
       </c>
@@ -2791,7 +2807,9 @@
         <v>10</v>
       </c>
       <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
+      <c r="G49" s="7">
+        <v>20</v>
+      </c>
       <c r="H49" s="3">
         <v>2</v>
       </c>
@@ -2827,7 +2845,9 @@
         <v>5</v>
       </c>
       <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
+      <c r="G50" s="7">
+        <v>50</v>
+      </c>
       <c r="H50" s="3">
         <v>2</v>
       </c>
@@ -2963,7 +2983,9 @@
         <v>0</v>
       </c>
       <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+      <c r="G54" s="7">
+        <v>20</v>
+      </c>
       <c r="H54" s="3">
         <v>2</v>
       </c>
@@ -3029,7 +3051,9 @@
         <v>5</v>
       </c>
       <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
+      <c r="G56" s="7">
+        <v>20</v>
+      </c>
       <c r="H56" s="3">
         <v>2</v>
       </c>
@@ -3169,7 +3193,9 @@
         <v>3</v>
       </c>
       <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
+      <c r="G60" s="7">
+        <v>30</v>
+      </c>
       <c r="H60" s="3">
         <v>2</v>
       </c>
@@ -3307,7 +3333,9 @@
         <v>4</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
+      <c r="G64" s="7">
+        <v>50</v>
+      </c>
       <c r="H64" s="3">
         <v>2</v>
       </c>
@@ -3409,7 +3437,9 @@
         <v>9</v>
       </c>
       <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
+      <c r="G67" s="7">
+        <v>50</v>
+      </c>
       <c r="H67" s="3">
         <v>2</v>
       </c>
@@ -3445,7 +3475,9 @@
         <v>3</v>
       </c>
       <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
+      <c r="G68" s="7">
+        <v>30</v>
+      </c>
       <c r="H68" s="3">
         <v>2</v>
       </c>
@@ -3515,7 +3547,9 @@
         <v>0</v>
       </c>
       <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
+      <c r="G70" s="7">
+        <v>50</v>
+      </c>
       <c r="H70" s="3">
         <v>2</v>
       </c>
@@ -3581,7 +3615,9 @@
         <v>5</v>
       </c>
       <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
+      <c r="G72" s="7">
+        <v>50</v>
+      </c>
       <c r="H72" s="3">
         <v>2</v>
       </c>
@@ -3691,7 +3727,9 @@
         <v>9</v>
       </c>
       <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
+      <c r="G75" s="7">
+        <v>50</v>
+      </c>
       <c r="H75" s="3">
         <v>2</v>
       </c>
@@ -3759,7 +3797,9 @@
         <v>9</v>
       </c>
       <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
+      <c r="G77" s="7">
+        <v>50</v>
+      </c>
       <c r="H77" s="3">
         <v>2</v>
       </c>
@@ -4081,7 +4121,9 @@
         <v>10</v>
       </c>
       <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
+      <c r="G86" s="7">
+        <v>50</v>
+      </c>
       <c r="H86" s="3">
         <v>2</v>
       </c>

--- a/OYM/_DocumentosComunes/BD.xlsx
+++ b/OYM/_DocumentosComunes/BD.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DESARROLLO\DoCUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE29BA0-EA5C-40D8-BDC7-A271C8915240}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$M$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$88</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -584,7 +583,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1068,18 +1067,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -2065,7 +2064,9 @@
         <v>9</v>
       </c>
       <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="G28" s="7">
+        <v>50</v>
+      </c>
       <c r="H28" s="3">
         <v>2</v>
       </c>
@@ -3973,7 +3974,9 @@
         <v>8</v>
       </c>
       <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
+      <c r="G82" s="7">
+        <v>50</v>
+      </c>
       <c r="H82" s="3">
         <v>2</v>
       </c>

--- a/OYM/_DocumentosComunes/BD.xlsx
+++ b/OYM/_DocumentosComunes/BD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_DESARROLLO\_DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1073,9 +1073,9 @@
   </sheetPr>
   <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78:XFD78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1087,12 +1087,9 @@
     <col min="5" max="5" width="6.85546875" customWidth="1"/>
     <col min="6" max="7" width="6.42578125" customWidth="1"/>
     <col min="8" max="8" width="6.85546875" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" customWidth="1"/>
-    <col min="10" max="11" width="4.5703125" customWidth="1"/>
-    <col min="12" max="12" width="5" customWidth="1"/>
+    <col min="9" max="12" width="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" customWidth="1"/>
+    <col min="14" max="16" width="3.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/BD.xlsx
+++ b/OYM/_DocumentosComunes/BD.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -578,6 +578,9 @@
   </si>
   <si>
     <t>P4</t>
+  </si>
+  <si>
+    <t>ACUM</t>
   </si>
 </sst>
 </file>
@@ -609,7 +612,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -622,8 +625,14 @@
         <bgColor indexed="10"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -646,11 +655,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -669,6 +689,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1071,11 +1103,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78:XFD78"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1092,7 +1124,7 @@
     <col min="14" max="16" width="3.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1139,8 +1171,11 @@
       <c r="P1" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q1" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -1191,8 +1226,12 @@
       <c r="P2" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q2">
+        <f>D2+E2+F2+G2+0</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1211,7 +1250,9 @@
         <v>0</v>
       </c>
       <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7">
+        <v>10</v>
+      </c>
       <c r="H3" s="3">
         <v>2</v>
       </c>
@@ -1223,8 +1264,12 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="2">D3+E3+F3+G3+0</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1255,8 +1300,12 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1287,8 +1336,12 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1321,8 +1374,12 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -1341,7 +1398,9 @@
         <v>5</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>10</v>
+      </c>
       <c r="H7" s="3">
         <v>2</v>
       </c>
@@ -1355,8 +1414,12 @@
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1387,8 +1450,12 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1407,7 +1474,9 @@
         <v>10</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>30</v>
+      </c>
       <c r="H9" s="3">
         <v>2</v>
       </c>
@@ -1423,8 +1492,12 @@
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1457,8 +1530,12 @@
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1477,7 +1554,9 @@
         <v>5</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7">
+        <v>40</v>
+      </c>
       <c r="H11" s="3">
         <v>2</v>
       </c>
@@ -1491,8 +1570,12 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1525,8 +1608,12 @@
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1557,8 +1644,12 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1577,7 +1668,9 @@
         <v>5</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7">
+        <v>35</v>
+      </c>
       <c r="H14" s="3">
         <v>2</v>
       </c>
@@ -1591,8 +1684,12 @@
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -1625,8 +1722,12 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -1645,7 +1746,9 @@
         <v>8</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7">
+        <v>30</v>
+      </c>
       <c r="H16" s="3">
         <v>2</v>
       </c>
@@ -1661,8 +1764,12 @@
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -1695,8 +1802,12 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -1727,8 +1838,12 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -1748,7 +1863,7 @@
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H19" s="3">
         <v>2</v>
@@ -1761,8 +1876,12 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -1793,8 +1912,12 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -1829,8 +1952,12 @@
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -1865,8 +1992,12 @@
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -1885,7 +2016,9 @@
         <v>10</v>
       </c>
       <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7">
+        <v>40</v>
+      </c>
       <c r="H23" s="3">
         <v>2</v>
       </c>
@@ -1901,8 +2034,12 @@
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -1937,8 +2074,12 @@
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -1957,7 +2098,9 @@
         <v>10</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7">
+        <v>40</v>
+      </c>
       <c r="H25" s="3">
         <v>2</v>
       </c>
@@ -1973,8 +2116,12 @@
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q25">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -1993,7 +2140,9 @@
         <v>5</v>
       </c>
       <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="7">
+        <v>45</v>
+      </c>
       <c r="H26" s="3">
         <v>2</v>
       </c>
@@ -2007,8 +2156,12 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q26">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -2041,8 +2194,12 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q27">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -2079,8 +2236,12 @@
       </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q28">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -2117,8 +2278,12 @@
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q29">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -2153,8 +2318,12 @@
       </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q30">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -2185,8 +2354,12 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q31">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -2223,8 +2396,12 @@
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q32">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -2259,8 +2436,12 @@
       </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q33">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -2293,8 +2474,12 @@
       </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q34">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -2329,8 +2514,12 @@
       </c>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
-    </row>
-    <row r="36" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q35">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -2365,44 +2554,54 @@
       </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
-    </row>
-    <row r="37" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+      <c r="Q36">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
         <v>35</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E37" s="7">
+      <c r="D37" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E37" s="11">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="3">
-        <v>2</v>
-      </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3">
+      <c r="F37" s="11"/>
+      <c r="G37" s="11">
+        <v>30</v>
+      </c>
+      <c r="H37" s="12">
+        <v>2</v>
+      </c>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12">
         <v>3</v>
       </c>
-      <c r="N37" s="3">
-        <v>5</v>
-      </c>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-    </row>
-    <row r="38" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N37" s="12">
+        <v>5</v>
+      </c>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="13">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -2437,8 +2636,12 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
-    </row>
-    <row r="39" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q38">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -2457,7 +2660,9 @@
         <v>7</v>
       </c>
       <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="G39" s="7">
+        <v>40</v>
+      </c>
       <c r="H39" s="3">
         <v>2</v>
       </c>
@@ -2473,8 +2678,12 @@
       </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q39">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -2493,7 +2702,9 @@
         <v>3</v>
       </c>
       <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
+      <c r="G40" s="7">
+        <v>40</v>
+      </c>
       <c r="H40" s="3">
         <v>2</v>
       </c>
@@ -2507,8 +2718,12 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q40">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>39</v>
       </c>
@@ -2527,7 +2742,9 @@
         <v>9</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
+      <c r="G41" s="7">
+        <v>45</v>
+      </c>
       <c r="H41" s="3">
         <v>2</v>
       </c>
@@ -2543,8 +2760,12 @@
       </c>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q41">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -2563,7 +2784,9 @@
         <v>3</v>
       </c>
       <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
+      <c r="G42" s="7">
+        <v>50</v>
+      </c>
       <c r="H42" s="3">
         <v>2</v>
       </c>
@@ -2577,8 +2800,12 @@
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q42">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -2597,7 +2824,9 @@
         <v>0</v>
       </c>
       <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
+      <c r="G43" s="7">
+        <v>50</v>
+      </c>
       <c r="H43" s="3">
         <v>2</v>
       </c>
@@ -2609,8 +2838,12 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q43">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -2645,8 +2878,12 @@
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q44">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43</v>
       </c>
@@ -2683,8 +2920,12 @@
       </c>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q45">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -2717,8 +2958,12 @@
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q46">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -2751,8 +2996,12 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q47">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -2785,8 +3034,12 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q48">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>47</v>
       </c>
@@ -2806,7 +3059,7 @@
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H49" s="3">
         <v>2</v>
@@ -2823,8 +3076,12 @@
       </c>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q49">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -2859,8 +3116,12 @@
       </c>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q50">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>49</v>
       </c>
@@ -2879,7 +3140,9 @@
         <v>5</v>
       </c>
       <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
+      <c r="G51" s="7">
+        <v>35</v>
+      </c>
       <c r="H51" s="3">
         <v>2</v>
       </c>
@@ -2893,8 +3156,12 @@
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q51">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -2913,7 +3180,9 @@
         <v>5</v>
       </c>
       <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
+      <c r="G52" s="7">
+        <v>40</v>
+      </c>
       <c r="H52" s="3">
         <v>2</v>
       </c>
@@ -2927,8 +3196,12 @@
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q52">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>51</v>
       </c>
@@ -2947,7 +3220,9 @@
         <v>5</v>
       </c>
       <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="G53" s="7">
+        <v>35</v>
+      </c>
       <c r="H53" s="3">
         <v>2</v>
       </c>
@@ -2961,8 +3236,12 @@
       </c>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q53">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>52</v>
       </c>
@@ -2982,7 +3261,7 @@
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H54" s="3">
         <v>2</v>
@@ -2995,8 +3274,12 @@
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q54">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>53</v>
       </c>
@@ -3015,7 +3298,9 @@
         <v>3</v>
       </c>
       <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
+      <c r="G55" s="7">
+        <v>40</v>
+      </c>
       <c r="H55" s="3">
         <v>2</v>
       </c>
@@ -3029,8 +3314,12 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q55">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -3050,7 +3339,7 @@
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H56" s="3">
         <v>2</v>
@@ -3067,8 +3356,12 @@
       </c>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q56">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -3087,7 +3380,9 @@
         <v>5</v>
       </c>
       <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
+      <c r="G57" s="7">
+        <v>40</v>
+      </c>
       <c r="H57" s="3">
         <v>2</v>
       </c>
@@ -3101,8 +3396,12 @@
       </c>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q57">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -3135,8 +3434,12 @@
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q58">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -3171,8 +3474,12 @@
       </c>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q59">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -3192,7 +3499,7 @@
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H60" s="3">
         <v>2</v>
@@ -3207,8 +3514,12 @@
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q60">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>59</v>
       </c>
@@ -3227,7 +3538,9 @@
         <v>5</v>
       </c>
       <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
+      <c r="G61" s="7">
+        <v>40</v>
+      </c>
       <c r="H61" s="3">
         <v>2</v>
       </c>
@@ -3241,8 +3554,12 @@
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q61">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -3261,7 +3578,9 @@
         <v>5</v>
       </c>
       <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
+      <c r="G62" s="7">
+        <v>35</v>
+      </c>
       <c r="H62" s="3">
         <v>2</v>
       </c>
@@ -3275,8 +3594,12 @@
       </c>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q62">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>61</v>
       </c>
@@ -3295,7 +3618,9 @@
         <v>10</v>
       </c>
       <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
+      <c r="G63" s="7">
+        <v>50</v>
+      </c>
       <c r="H63" s="3">
         <v>2</v>
       </c>
@@ -3311,8 +3636,12 @@
       </c>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q63">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>62</v>
       </c>
@@ -3347,8 +3676,12 @@
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q64">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>63</v>
       </c>
@@ -3381,8 +3714,12 @@
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q65">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>64</v>
       </c>
@@ -3415,8 +3752,12 @@
       </c>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q66">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>65</v>
       </c>
@@ -3427,11 +3768,11 @@
         <v>138</v>
       </c>
       <c r="D67" s="7">
-        <f t="shared" ref="D67:D88" si="2">H67+I67+J67+K67+L67</f>
+        <f t="shared" ref="D67:D88" si="3">H67+I67+J67+K67+L67</f>
         <v>2</v>
       </c>
       <c r="E67" s="7">
-        <f t="shared" ref="E67:E88" si="3">M67+N67+O67+P67</f>
+        <f t="shared" ref="E67:E88" si="4">M67+N67+O67+P67</f>
         <v>9</v>
       </c>
       <c r="F67" s="7"/>
@@ -3453,8 +3794,12 @@
       </c>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q88" si="5">D67+E67+F67+G67+0</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>66</v>
       </c>
@@ -3465,16 +3810,16 @@
         <v>140</v>
       </c>
       <c r="D68" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E68" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H68" s="3">
         <v>2</v>
@@ -3489,8 +3834,12 @@
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q68">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>67</v>
       </c>
@@ -3501,15 +3850,17 @@
         <v>142</v>
       </c>
       <c r="D69" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E69" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
+      <c r="G69" s="7">
+        <v>40</v>
+      </c>
       <c r="H69" s="3">
         <v>2</v>
       </c>
@@ -3525,8 +3876,12 @@
       </c>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q69">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>68</v>
       </c>
@@ -3537,11 +3892,11 @@
         <v>144</v>
       </c>
       <c r="D70" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E70" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F70" s="7"/>
@@ -3559,8 +3914,12 @@
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q70">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>69</v>
       </c>
@@ -3571,15 +3930,17 @@
         <v>146</v>
       </c>
       <c r="D71" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E71" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
+      <c r="G71" s="7">
+        <v>30</v>
+      </c>
       <c r="H71" s="3">
         <v>2</v>
       </c>
@@ -3593,8 +3954,12 @@
       </c>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q71">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>70</v>
       </c>
@@ -3605,11 +3970,11 @@
         <v>148</v>
       </c>
       <c r="D72" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E72" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="F72" s="7"/>
@@ -3631,8 +3996,12 @@
       </c>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q72">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>71</v>
       </c>
@@ -3643,15 +4012,17 @@
         <v>150</v>
       </c>
       <c r="D73" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
+      <c r="G73" s="7">
+        <v>45</v>
+      </c>
       <c r="H73" s="3">
         <v>2</v>
       </c>
@@ -3667,8 +4038,12 @@
       </c>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q73">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -3679,15 +4054,17 @@
         <v>152</v>
       </c>
       <c r="D74" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E74" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
+      <c r="G74" s="7">
+        <v>30</v>
+      </c>
       <c r="H74" s="3">
         <v>2</v>
       </c>
@@ -3705,8 +4082,12 @@
       </c>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q74">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>73</v>
       </c>
@@ -3717,11 +4098,11 @@
         <v>154</v>
       </c>
       <c r="D75" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E75" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="F75" s="7"/>
@@ -3743,8 +4124,12 @@
       </c>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q75">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>74</v>
       </c>
@@ -3755,15 +4140,17 @@
         <v>156</v>
       </c>
       <c r="D76" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E76" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
+      <c r="G76" s="7">
+        <v>30</v>
+      </c>
       <c r="H76" s="3">
         <v>2</v>
       </c>
@@ -3775,8 +4162,12 @@
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q76">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>75</v>
       </c>
@@ -3787,11 +4178,11 @@
         <v>158</v>
       </c>
       <c r="D77" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E77" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="F77" s="7"/>
@@ -3813,8 +4204,12 @@
       </c>
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
-    </row>
-    <row r="78" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q77">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>76</v>
       </c>
@@ -3825,15 +4220,17 @@
         <v>160</v>
       </c>
       <c r="D78" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E78" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
+      <c r="G78" s="7">
+        <v>40</v>
+      </c>
       <c r="H78" s="3">
         <v>2</v>
       </c>
@@ -3845,8 +4242,12 @@
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
-    </row>
-    <row r="79" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q78">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>77</v>
       </c>
@@ -3857,15 +4258,17 @@
         <v>162</v>
       </c>
       <c r="D79" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E79" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
+      <c r="G79" s="7">
+        <v>45</v>
+      </c>
       <c r="H79" s="3">
         <v>2</v>
       </c>
@@ -3881,8 +4284,12 @@
       </c>
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
-    </row>
-    <row r="80" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q79">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>78</v>
       </c>
@@ -3893,15 +4300,17 @@
         <v>164</v>
       </c>
       <c r="D80" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E80" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
+      <c r="G80" s="7">
+        <v>50</v>
+      </c>
       <c r="H80" s="3">
         <v>2</v>
       </c>
@@ -3917,8 +4326,12 @@
       </c>
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
-    </row>
-    <row r="81" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q80">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>79</v>
       </c>
@@ -3929,15 +4342,17 @@
         <v>166</v>
       </c>
       <c r="D81" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E81" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
+      <c r="G81" s="7">
+        <v>50</v>
+      </c>
       <c r="H81" s="3">
         <v>2</v>
       </c>
@@ -3951,8 +4366,12 @@
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q81">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>80</v>
       </c>
@@ -3963,11 +4382,11 @@
         <v>168</v>
       </c>
       <c r="D82" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E82" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="F82" s="7"/>
@@ -3989,8 +4408,12 @@
       </c>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q82">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>81</v>
       </c>
@@ -4001,15 +4424,17 @@
         <v>170</v>
       </c>
       <c r="D83" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E83" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
+      <c r="G83" s="7">
+        <v>30</v>
+      </c>
       <c r="H83" s="3">
         <v>2</v>
       </c>
@@ -4027,8 +4452,12 @@
       </c>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q83">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>82</v>
       </c>
@@ -4039,15 +4468,17 @@
         <v>172</v>
       </c>
       <c r="D84" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E84" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
+      <c r="G84" s="7">
+        <v>40</v>
+      </c>
       <c r="H84" s="3">
         <v>2</v>
       </c>
@@ -4063,8 +4494,12 @@
       </c>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q84">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>83</v>
       </c>
@@ -4075,11 +4510,11 @@
         <v>174</v>
       </c>
       <c r="D85" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E85" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F85" s="7"/>
@@ -4101,8 +4536,12 @@
       </c>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q85">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>84</v>
       </c>
@@ -4113,11 +4552,11 @@
         <v>176</v>
       </c>
       <c r="D86" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E86" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F86" s="7"/>
@@ -4139,8 +4578,12 @@
       </c>
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q86">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>85</v>
       </c>
@@ -4151,15 +4594,17 @@
         <v>178</v>
       </c>
       <c r="D87" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E87" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
+      <c r="G87" s="7">
+        <v>40</v>
+      </c>
       <c r="H87" s="3">
         <v>2</v>
       </c>
@@ -4175,8 +4620,12 @@
       </c>
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
-    </row>
-    <row r="88" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q87">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>86</v>
       </c>
@@ -4187,15 +4636,17 @@
         <v>180</v>
       </c>
       <c r="D88" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E88" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
+      <c r="G88" s="7">
+        <v>40</v>
+      </c>
       <c r="H88" s="3">
         <v>2</v>
       </c>
@@ -4207,6 +4658,10 @@
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
+      <c r="Q88">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>

--- a/OYM/_DocumentosComunes/BD.xlsx
+++ b/OYM/_DocumentosComunes/BD.xlsx
@@ -1106,8 +1106,8 @@
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1516,7 +1516,9 @@
         <v>5</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7">
+        <v>40</v>
+      </c>
       <c r="H10" s="3">
         <v>2</v>
       </c>
@@ -1532,7 +1534,7 @@
       <c r="P10" s="3"/>
       <c r="Q10">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2538,7 +2540,9 @@
         <v>8</v>
       </c>
       <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+      <c r="G36" s="7">
+        <v>40</v>
+      </c>
       <c r="H36" s="3">
         <v>2</v>
       </c>
@@ -2556,7 +2560,7 @@
       <c r="P36" s="3"/>
       <c r="Q36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:17" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2982,7 +2986,9 @@
         <v>5</v>
       </c>
       <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
+      <c r="G47" s="7">
+        <v>40</v>
+      </c>
       <c r="H47" s="3">
         <v>2</v>
       </c>
@@ -2998,7 +3004,7 @@
       <c r="P47" s="3"/>
       <c r="Q47">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/BD.xlsx
+++ b/OYM/_DocumentosComunes/BD.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$Q$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$88</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -49,9 +49,6 @@
     <t>THIS IS A TEST</t>
   </si>
   <si>
-    <t>Asist 1</t>
-  </si>
-  <si>
     <t>02-SIIN-1-078</t>
   </si>
   <si>
@@ -568,9 +565,6 @@
     <t>MARTIR JUAN LORENZO QUEZADA</t>
   </si>
   <si>
-    <t>Practica 1</t>
-  </si>
-  <si>
     <t>P2</t>
   </si>
   <si>
@@ -581,6 +575,9 @@
   </si>
   <si>
     <t>ACUM</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -612,7 +609,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,7 +624,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -701,6 +704,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1106,8 +1120,8 @@
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1118,10 +1132,11 @@
     <col min="4" max="4" width="6.7109375" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" customWidth="1"/>
     <col min="6" max="7" width="6.42578125" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" customWidth="1"/>
-    <col min="9" max="12" width="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.140625" customWidth="1"/>
+    <col min="14" max="14" width="2.28515625" customWidth="1"/>
+    <col min="15" max="16" width="2.42578125" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1144,8 +1159,8 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
+      <c r="H1" s="3">
+        <v>1</v>
       </c>
       <c r="I1" s="3">
         <v>2</v>
@@ -1160,19 +1175,19 @@
         <v>5</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1186,11 +1201,11 @@
         <v>7</v>
       </c>
       <c r="D2" s="7">
-        <f>H2+I2+J2+K2+L2</f>
-        <v>10</v>
+        <f t="shared" ref="D2:D36" si="0">H2+I2+J2+K2+L2+6</f>
+        <v>16</v>
       </c>
       <c r="E2" s="7">
-        <f>M2+N2+O2+P2</f>
+        <f t="shared" ref="E2:E33" si="1">M2+N2+O2+P2</f>
         <v>20</v>
       </c>
       <c r="F2" s="7">
@@ -1227,8 +1242,8 @@
         <v>5</v>
       </c>
       <c r="Q2">
-        <f>D2+E2+F2+G2+0</f>
-        <v>100</v>
+        <f t="shared" ref="Q2:Q33" si="2">D2+E2+F2+G2+0</f>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1236,22 +1251,24 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
         <v>10</v>
       </c>
-      <c r="D3" s="7">
-        <f t="shared" ref="D3:D66" si="0">H3+I3+J3+K3+L3</f>
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <f t="shared" ref="E3:E66" si="1">M3+N3+O3+P3</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="7"/>
       <c r="G3" s="7">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>
@@ -1265,8 +1282,8 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q66" si="2">D3+E3+F3+G3+0</f>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1274,14 +1291,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" si="1"/>
@@ -1302,7 +1319,7 @@
       <c r="P4" s="3"/>
       <c r="Q4">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1310,14 +1327,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" si="1"/>
@@ -1338,7 +1355,7 @@
       <c r="P5" s="3"/>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1346,14 +1363,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="1"/>
@@ -1376,7 +1393,7 @@
       <c r="P6" s="3"/>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1384,22 +1401,24 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7">
+        <v>16</v>
+      </c>
       <c r="G7" s="7">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H7" s="3">
         <v>2</v>
@@ -1416,7 +1435,7 @@
       <c r="P7" s="3"/>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1424,20 +1443,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7">
+        <v>18</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="3">
         <v>2</v>
@@ -1452,7 +1473,7 @@
       <c r="P8" s="3"/>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1460,20 +1481,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F9" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="F9" s="7">
+        <v>16</v>
+      </c>
       <c r="G9" s="7">
         <v>30</v>
       </c>
@@ -1491,10 +1514,12 @@
         <v>5</v>
       </c>
       <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="P9" s="3">
+        <v>6</v>
+      </c>
       <c r="Q9">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1502,20 +1527,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F10" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="F10" s="7">
+        <v>12</v>
+      </c>
       <c r="G10" s="7">
         <v>40</v>
       </c>
@@ -1531,10 +1558,12 @@
         <v>5</v>
       </c>
       <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
+      <c r="P10" s="3">
+        <v>5</v>
+      </c>
       <c r="Q10">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1542,20 +1571,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F11" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="F11" s="7">
+        <v>8</v>
+      </c>
       <c r="G11" s="7">
         <v>40</v>
       </c>
@@ -1571,10 +1602,12 @@
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="P11" s="3">
+        <v>9</v>
+      </c>
       <c r="Q11">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1582,14 +1615,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="1"/>
@@ -1612,7 +1645,7 @@
       <c r="P12" s="3"/>
       <c r="Q12">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1620,14 +1653,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
@@ -1648,7 +1681,7 @@
       <c r="P13" s="3"/>
       <c r="Q13">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1656,20 +1689,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F14" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="F14" s="7">
+        <v>14</v>
+      </c>
       <c r="G14" s="7">
         <v>35</v>
       </c>
@@ -1685,10 +1720,12 @@
         <v>5</v>
       </c>
       <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="P14" s="3">
+        <v>8</v>
+      </c>
       <c r="Q14">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1696,14 +1733,14 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="1"/>
@@ -1726,7 +1763,7 @@
       <c r="P15" s="3"/>
       <c r="Q15">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1734,22 +1771,24 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F16" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="F16" s="7">
+        <v>12</v>
+      </c>
       <c r="G16" s="7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H16" s="3">
         <v>2</v>
@@ -1765,10 +1804,12 @@
         <v>5</v>
       </c>
       <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+      <c r="P16" s="3">
+        <v>2</v>
+      </c>
       <c r="Q16">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1776,20 +1817,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7">
+        <v>16</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="3">
         <v>2</v>
@@ -1806,7 +1849,7 @@
       <c r="P17" s="3"/>
       <c r="Q17">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1814,20 +1857,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7">
+        <v>4</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="3">
         <v>2</v>
@@ -1842,7 +1887,7 @@
       <c r="P18" s="3"/>
       <c r="Q18">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1850,20 +1895,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="F19" s="7">
+        <v>16</v>
+      </c>
       <c r="G19" s="7">
         <v>40</v>
       </c>
@@ -1877,10 +1924,12 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="P19" s="3">
+        <v>6</v>
+      </c>
       <c r="Q19">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1888,14 +1937,14 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="D20" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" si="1"/>
@@ -1916,7 +1965,7 @@
       <c r="P20" s="3"/>
       <c r="Q20">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1924,20 +1973,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="D21" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="7">
+        <v>12</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="3">
         <v>2</v>
@@ -1956,7 +2007,7 @@
       <c r="P21" s="3"/>
       <c r="Q21">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1964,20 +2015,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="D22" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F22" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="F22" s="7">
+        <v>16</v>
+      </c>
       <c r="G22" s="7">
         <v>50</v>
       </c>
@@ -1993,10 +2046,12 @@
         <v>5</v>
       </c>
       <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
+      <c r="P22" s="3">
+        <v>1</v>
+      </c>
       <c r="Q22">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2004,20 +2059,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="D23" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F23" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="F23" s="7">
+        <v>14</v>
+      </c>
       <c r="G23" s="7">
         <v>40</v>
       </c>
@@ -2035,10 +2092,12 @@
         <v>5</v>
       </c>
       <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+      <c r="P23" s="3">
+        <v>3</v>
+      </c>
       <c r="Q23">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2046,20 +2105,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="D24" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F24" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="F24" s="7">
+        <v>20</v>
+      </c>
       <c r="G24" s="7">
         <v>40</v>
       </c>
@@ -2075,10 +2136,12 @@
         <v>5</v>
       </c>
       <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
+      <c r="P24" s="3">
+        <v>2</v>
+      </c>
       <c r="Q24">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2086,20 +2149,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="D25" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E25" s="7">
         <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F25" s="7">
         <v>10</v>
       </c>
-      <c r="F25" s="7"/>
       <c r="G25" s="7">
         <v>40</v>
       </c>
@@ -2117,10 +2182,12 @@
         <v>5</v>
       </c>
       <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
+      <c r="P25" s="3">
+        <v>2</v>
+      </c>
       <c r="Q25">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2128,20 +2195,22 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="D26" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F26" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="F26" s="7">
+        <v>16</v>
+      </c>
       <c r="G26" s="7">
         <v>45</v>
       </c>
@@ -2157,10 +2226,12 @@
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
+      <c r="P26" s="3">
+        <v>1</v>
+      </c>
       <c r="Q26">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2168,20 +2239,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="D27" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E27" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="7">
+        <v>14</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="3">
         <v>2</v>
@@ -2198,7 +2271,7 @@
       <c r="P27" s="3"/>
       <c r="Q27">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2206,20 +2279,22 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="D28" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="F28" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="F28" s="7">
+        <v>12</v>
+      </c>
       <c r="G28" s="7">
         <v>50</v>
       </c>
@@ -2237,10 +2312,12 @@
         <v>5</v>
       </c>
       <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="P28" s="3">
+        <v>1</v>
+      </c>
       <c r="Q28">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2248,20 +2325,22 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="D29" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E29" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F29" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="F29" s="7">
+        <v>14</v>
+      </c>
       <c r="G29" s="7">
         <v>40</v>
       </c>
@@ -2279,10 +2358,12 @@
         <v>5</v>
       </c>
       <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
+      <c r="P29" s="3">
+        <v>5</v>
+      </c>
       <c r="Q29">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2290,21 +2371,25 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="D30" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="F30" s="7">
+        <v>20</v>
+      </c>
+      <c r="G30" s="7">
+        <v>35</v>
+      </c>
       <c r="H30" s="3">
         <v>2</v>
       </c>
@@ -2322,7 +2407,7 @@
       <c r="P30" s="3"/>
       <c r="Q30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2330,14 +2415,14 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="D31" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" si="1"/>
@@ -2358,7 +2443,7 @@
       <c r="P31" s="3"/>
       <c r="Q31">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2366,14 +2451,14 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="D32" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="1"/>
@@ -2400,7 +2485,7 @@
       <c r="P32" s="3"/>
       <c r="Q32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2408,20 +2493,22 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="D33" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E33" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F33" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="F33" s="7">
+        <v>18</v>
+      </c>
       <c r="G33" s="7">
         <v>40</v>
       </c>
@@ -2437,10 +2524,12 @@
         <v>5</v>
       </c>
       <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
+      <c r="P33" s="3">
+        <v>4</v>
+      </c>
       <c r="Q33">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2448,20 +2537,22 @@
         <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="D34" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E34" s="7">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F34" s="7"/>
+        <f t="shared" ref="E34:E65" si="3">M34+N34+O34+P34</f>
+        <v>5</v>
+      </c>
+      <c r="F34" s="7">
+        <v>20</v>
+      </c>
       <c r="G34" s="7"/>
       <c r="H34" s="3">
         <v>2</v>
@@ -2477,8 +2568,8 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" ref="Q34:Q65" si="4">D34+E34+F34+G34+0</f>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2486,20 +2577,22 @@
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="D35" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E35" s="7">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F35" s="7"/>
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F35" s="7">
+        <v>16</v>
+      </c>
       <c r="G35" s="7">
         <v>50</v>
       </c>
@@ -2515,10 +2608,12 @@
         <v>5</v>
       </c>
       <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
+      <c r="P35" s="3">
+        <v>1</v>
+      </c>
       <c r="Q35">
-        <f t="shared" si="2"/>
-        <v>57</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2526,20 +2621,22 @@
         <v>34</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="D36" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E36" s="7">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F36" s="7"/>
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="F36" s="7">
+        <v>18</v>
+      </c>
       <c r="G36" s="7">
         <v>40</v>
       </c>
@@ -2557,10 +2654,12 @@
         <v>5</v>
       </c>
       <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
+      <c r="P36" s="3">
+        <v>1</v>
+      </c>
       <c r="Q36">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:17" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2568,20 +2667,21 @@
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>78</v>
-      </c>
       <c r="D37" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E37" s="11">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F37" s="11"/>
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="F37" s="11">
+        <v>18</v>
+      </c>
       <c r="G37" s="11">
         <v>30</v>
       </c>
@@ -2599,10 +2699,12 @@
         <v>5</v>
       </c>
       <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
+      <c r="P37" s="12">
+        <v>4</v>
+      </c>
       <c r="Q37" s="13">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2610,18 +2712,18 @@
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="D38" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" ref="D38:D69" si="5">H38+I38+J38+K38+L38+6</f>
+        <v>8</v>
       </c>
       <c r="E38" s="7">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7">
@@ -2639,10 +2741,12 @@
       </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
+      <c r="P38" s="3">
+        <v>7</v>
+      </c>
       <c r="Q38">
-        <f t="shared" si="2"/>
-        <v>57</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2650,20 +2754,22 @@
         <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="D39" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="E39" s="7">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F39" s="7"/>
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="F39" s="7">
+        <v>12</v>
+      </c>
       <c r="G39" s="7">
         <v>40</v>
       </c>
@@ -2681,50 +2787,52 @@
         <v>5</v>
       </c>
       <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
+      <c r="P39" s="3">
+        <v>3</v>
+      </c>
       <c r="Q39">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="18" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14">
         <v>38</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E40" s="7">
-        <f t="shared" si="1"/>
+      <c r="D40" s="16">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="E40" s="16">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7">
+      <c r="F40" s="16"/>
+      <c r="G40" s="16">
         <v>40</v>
       </c>
-      <c r="H40" s="3">
-        <v>2</v>
-      </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3">
+      <c r="H40" s="17">
+        <v>2</v>
+      </c>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17">
         <v>3</v>
       </c>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40">
-        <f t="shared" si="2"/>
-        <v>45</v>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="18">
+        <f t="shared" si="4"/>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2732,20 +2840,22 @@
         <v>39</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="D41" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="E41" s="7">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="F41" s="7"/>
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="F41" s="7">
+        <v>16</v>
+      </c>
       <c r="G41" s="7">
         <v>45</v>
       </c>
@@ -2763,10 +2873,12 @@
         <v>5</v>
       </c>
       <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
+      <c r="P41" s="3">
+        <v>2</v>
+      </c>
       <c r="Q41">
-        <f t="shared" si="2"/>
-        <v>56</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2774,20 +2886,22 @@
         <v>40</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="D42" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="E42" s="7">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F42" s="7"/>
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F42" s="7">
+        <v>14</v>
+      </c>
       <c r="G42" s="7">
         <v>50</v>
       </c>
@@ -2803,10 +2917,12 @@
       </c>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
+      <c r="P42" s="3">
+        <v>5</v>
+      </c>
       <c r="Q42">
-        <f t="shared" si="2"/>
-        <v>55</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2814,20 +2930,22 @@
         <v>41</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="D43" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="E43" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="7"/>
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F43" s="7">
+        <v>12</v>
+      </c>
       <c r="G43" s="7">
         <v>50</v>
       </c>
@@ -2841,10 +2959,12 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
+      <c r="P43" s="3">
+        <v>5</v>
+      </c>
       <c r="Q43">
-        <f t="shared" si="2"/>
-        <v>52</v>
+        <f t="shared" si="4"/>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2852,17 +2972,17 @@
         <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="D44" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="E44" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F44" s="7"/>
@@ -2883,8 +3003,8 @@
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2892,20 +3012,22 @@
         <v>43</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="D45" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="E45" s="7">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F45" s="7"/>
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="F45" s="7">
+        <v>20</v>
+      </c>
       <c r="G45" s="7">
         <v>40</v>
       </c>
@@ -2923,10 +3045,12 @@
         <v>5</v>
       </c>
       <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
+      <c r="P45" s="3">
+        <v>2</v>
+      </c>
       <c r="Q45">
-        <f t="shared" si="2"/>
-        <v>52</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2934,20 +3058,22 @@
         <v>44</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="D46" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="E46" s="7">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F46" s="7"/>
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F46" s="7">
+        <v>18</v>
+      </c>
       <c r="G46" s="7"/>
       <c r="H46" s="3">
         <v>2</v>
@@ -2963,8 +3089,8 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2972,20 +3098,22 @@
         <v>45</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="D47" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="E47" s="7">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F47" s="7"/>
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="F47" s="7">
+        <v>10</v>
+      </c>
       <c r="G47" s="7">
         <v>40</v>
       </c>
@@ -3001,10 +3129,12 @@
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
+      <c r="P47" s="3">
+        <v>7</v>
+      </c>
       <c r="Q47">
-        <f t="shared" si="2"/>
-        <v>47</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3012,20 +3142,22 @@
         <v>46</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="D48" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="E48" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F48" s="7"/>
+      <c r="F48" s="7">
+        <v>18</v>
+      </c>
       <c r="G48" s="7"/>
       <c r="H48" s="3">
         <v>2</v>
@@ -3041,8 +3173,8 @@
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3050,20 +3182,22 @@
         <v>47</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="D49" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="E49" s="7">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F49" s="7"/>
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="F49" s="7">
+        <v>18</v>
+      </c>
       <c r="G49" s="7">
         <v>50</v>
       </c>
@@ -3081,10 +3215,12 @@
         <v>5</v>
       </c>
       <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
+      <c r="P49" s="3">
+        <v>4</v>
+      </c>
       <c r="Q49">
-        <f t="shared" si="2"/>
-        <v>62</v>
+        <f t="shared" si="4"/>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3092,20 +3228,22 @@
         <v>48</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="D50" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="E50" s="7">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F50" s="7"/>
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F50" s="7">
+        <v>14</v>
+      </c>
       <c r="G50" s="7">
         <v>50</v>
       </c>
@@ -3121,10 +3259,12 @@
         <v>5</v>
       </c>
       <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
+      <c r="P50" s="3">
+        <v>3</v>
+      </c>
       <c r="Q50">
-        <f t="shared" si="2"/>
-        <v>57</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3132,20 +3272,22 @@
         <v>49</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="D51" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="E51" s="7">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F51" s="7"/>
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="F51" s="7">
+        <v>12</v>
+      </c>
       <c r="G51" s="7">
         <v>35</v>
       </c>
@@ -3161,10 +3303,12 @@
         <v>5</v>
       </c>
       <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
+      <c r="P51" s="3">
+        <v>10</v>
+      </c>
       <c r="Q51">
-        <f t="shared" si="2"/>
-        <v>42</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3172,20 +3316,22 @@
         <v>50</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="D52" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="E52" s="7">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F52" s="7"/>
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="F52" s="7">
+        <v>12</v>
+      </c>
       <c r="G52" s="7">
         <v>40</v>
       </c>
@@ -3201,10 +3347,12 @@
       </c>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
+      <c r="P52" s="3">
+        <v>5</v>
+      </c>
       <c r="Q52">
-        <f t="shared" si="2"/>
-        <v>47</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3212,20 +3360,22 @@
         <v>51</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="D53" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="E53" s="7">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F53" s="7"/>
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F53" s="7">
+        <v>20</v>
+      </c>
       <c r="G53" s="7">
         <v>35</v>
       </c>
@@ -3241,10 +3391,12 @@
         <v>5</v>
       </c>
       <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
+      <c r="P53" s="3">
+        <v>2</v>
+      </c>
       <c r="Q53">
-        <f t="shared" si="2"/>
-        <v>42</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3252,20 +3404,22 @@
         <v>52</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="D54" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="E54" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="7"/>
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F54" s="7">
+        <v>18</v>
+      </c>
       <c r="G54" s="7">
         <v>50</v>
       </c>
@@ -3279,10 +3433,12 @@
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
+      <c r="P54" s="3">
+        <v>4</v>
+      </c>
       <c r="Q54">
-        <f t="shared" si="2"/>
-        <v>52</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3290,20 +3446,22 @@
         <v>53</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="D55" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="E55" s="7">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F55" s="7"/>
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F55" s="7">
+        <v>14</v>
+      </c>
       <c r="G55" s="7">
         <v>40</v>
       </c>
@@ -3319,10 +3477,12 @@
       </c>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
+      <c r="P55" s="3">
+        <v>5</v>
+      </c>
       <c r="Q55">
-        <f t="shared" si="2"/>
-        <v>45</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3330,20 +3490,22 @@
         <v>54</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="D56" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="E56" s="7">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F56" s="7"/>
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F56" s="7">
+        <v>18</v>
+      </c>
       <c r="G56" s="7">
         <v>50</v>
       </c>
@@ -3361,10 +3523,12 @@
         <v>5</v>
       </c>
       <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
+      <c r="P56" s="3">
+        <v>2</v>
+      </c>
       <c r="Q56">
-        <f t="shared" si="2"/>
-        <v>59</v>
+        <f t="shared" si="4"/>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3372,20 +3536,22 @@
         <v>55</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>118</v>
-      </c>
       <c r="D57" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="E57" s="7">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F57" s="7"/>
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F57" s="7">
+        <v>20</v>
+      </c>
       <c r="G57" s="7">
         <v>40</v>
       </c>
@@ -3401,10 +3567,12 @@
         <v>5</v>
       </c>
       <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
+      <c r="P57" s="3">
+        <v>2</v>
+      </c>
       <c r="Q57">
-        <f t="shared" si="2"/>
-        <v>47</v>
+        <f t="shared" si="4"/>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3412,20 +3580,22 @@
         <v>56</v>
       </c>
       <c r="B58" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="D58" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="E58" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F58" s="7"/>
+      <c r="F58" s="7">
+        <v>10</v>
+      </c>
       <c r="G58" s="7"/>
       <c r="H58" s="3">
         <v>2</v>
@@ -3441,8 +3611,8 @@
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3450,21 +3620,25 @@
         <v>57</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>122</v>
-      </c>
       <c r="D59" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="E59" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
+      <c r="F59" s="7">
+        <v>10</v>
+      </c>
+      <c r="G59" s="7">
+        <v>40</v>
+      </c>
       <c r="H59" s="3">
         <v>2</v>
       </c>
@@ -3481,48 +3655,48 @@
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" s="18" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="14">
         <v>58</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D60" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E60" s="7">
-        <f t="shared" si="1"/>
+      <c r="D60" s="16">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="E60" s="16">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7">
+      <c r="F60" s="16"/>
+      <c r="G60" s="16">
         <v>40</v>
       </c>
-      <c r="H60" s="3">
-        <v>2</v>
-      </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3">
+      <c r="H60" s="17">
+        <v>2</v>
+      </c>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60">
-        <f t="shared" si="2"/>
-        <v>45</v>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="18">
+        <f t="shared" si="4"/>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3530,20 +3704,22 @@
         <v>59</v>
       </c>
       <c r="B61" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="D61" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="E61" s="7">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F61" s="7"/>
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F61" s="7">
+        <v>14</v>
+      </c>
       <c r="G61" s="7">
         <v>40</v>
       </c>
@@ -3559,10 +3735,12 @@
       </c>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
+      <c r="P61" s="3">
+        <v>3</v>
+      </c>
       <c r="Q61">
-        <f t="shared" si="2"/>
-        <v>47</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3570,20 +3748,22 @@
         <v>60</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="D62" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="E62" s="7">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F62" s="7"/>
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="F62" s="7">
+        <v>16</v>
+      </c>
       <c r="G62" s="7">
         <v>35</v>
       </c>
@@ -3599,10 +3779,12 @@
         <v>5</v>
       </c>
       <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
+      <c r="P62" s="3">
+        <v>6</v>
+      </c>
       <c r="Q62">
-        <f t="shared" si="2"/>
-        <v>42</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3610,20 +3792,22 @@
         <v>61</v>
       </c>
       <c r="B63" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>130</v>
-      </c>
       <c r="D63" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="E63" s="7">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F63" s="7"/>
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="F63" s="7">
+        <v>16</v>
+      </c>
       <c r="G63" s="7">
         <v>50</v>
       </c>
@@ -3641,10 +3825,12 @@
         <v>5</v>
       </c>
       <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
+      <c r="P63" s="3">
+        <v>1</v>
+      </c>
       <c r="Q63">
-        <f t="shared" si="2"/>
-        <v>62</v>
+        <f t="shared" si="4"/>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3652,20 +3838,22 @@
         <v>62</v>
       </c>
       <c r="B64" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="D64" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="E64" s="7">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F64" s="7"/>
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F64" s="7">
+        <v>20</v>
+      </c>
       <c r="G64" s="7">
         <v>50</v>
       </c>
@@ -3681,10 +3869,12 @@
       </c>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
+      <c r="P64" s="3">
+        <v>3</v>
+      </c>
       <c r="Q64">
-        <f t="shared" si="2"/>
-        <v>56</v>
+        <f t="shared" si="4"/>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3692,20 +3882,22 @@
         <v>63</v>
       </c>
       <c r="B65" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="D65" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="E65" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F65" s="7"/>
+      <c r="F65" s="7">
+        <v>16</v>
+      </c>
       <c r="G65" s="7"/>
       <c r="H65" s="3">
         <v>2</v>
@@ -3721,8 +3913,8 @@
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
       <c r="Q65">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3730,20 +3922,22 @@
         <v>64</v>
       </c>
       <c r="B66" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>136</v>
-      </c>
       <c r="D66" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="E66" s="7">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F66" s="7"/>
+        <f t="shared" ref="E66:E88" si="6">M66+N66+O66+P66</f>
+        <v>5</v>
+      </c>
+      <c r="F66" s="7">
+        <v>12</v>
+      </c>
       <c r="G66" s="7"/>
       <c r="H66" s="3">
         <v>2</v>
@@ -3759,8 +3953,8 @@
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
       <c r="Q66">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" ref="Q66:Q88" si="7">D66+E66+F66+G66+0</f>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3768,20 +3962,22 @@
         <v>65</v>
       </c>
       <c r="B67" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>138</v>
-      </c>
       <c r="D67" s="7">
-        <f t="shared" ref="D67:D88" si="3">H67+I67+J67+K67+L67</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="E67" s="7">
-        <f t="shared" ref="E67:E88" si="4">M67+N67+O67+P67</f>
-        <v>9</v>
-      </c>
-      <c r="F67" s="7"/>
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="F67" s="7">
+        <v>20</v>
+      </c>
       <c r="G67" s="7">
         <v>50</v>
       </c>
@@ -3799,10 +3995,12 @@
         <v>5</v>
       </c>
       <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
+      <c r="P67" s="3">
+        <v>3</v>
+      </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q88" si="5">D67+E67+F67+G67+0</f>
-        <v>61</v>
+        <f t="shared" si="7"/>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3810,20 +4008,22 @@
         <v>66</v>
       </c>
       <c r="B68" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="D68" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="E68" s="7">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="F68" s="7"/>
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="F68" s="7">
+        <v>12</v>
+      </c>
       <c r="G68" s="7">
         <v>40</v>
       </c>
@@ -3839,10 +4039,12 @@
       </c>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
+      <c r="P68" s="3">
+        <v>7</v>
+      </c>
       <c r="Q68">
-        <f t="shared" si="5"/>
-        <v>45</v>
+        <f t="shared" si="7"/>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3850,20 +4052,22 @@
         <v>67</v>
       </c>
       <c r="B69" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>142</v>
-      </c>
       <c r="D69" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="E69" s="7">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="F69" s="7"/>
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="F69" s="7">
+        <v>16</v>
+      </c>
       <c r="G69" s="7">
         <v>40</v>
       </c>
@@ -3881,10 +4085,12 @@
         <v>5</v>
       </c>
       <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
+      <c r="P69" s="3">
+        <v>1</v>
+      </c>
       <c r="Q69">
-        <f t="shared" si="5"/>
-        <v>52</v>
+        <f t="shared" si="7"/>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3892,20 +4098,22 @@
         <v>68</v>
       </c>
       <c r="B70" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>144</v>
-      </c>
       <c r="D70" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" ref="D70:D88" si="8">H70+I70+J70+K70+L70+6</f>
+        <v>8</v>
       </c>
       <c r="E70" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F70" s="7"/>
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="F70" s="7">
+        <v>20</v>
+      </c>
       <c r="G70" s="7">
         <v>50</v>
       </c>
@@ -3919,10 +4127,12 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
+      <c r="P70" s="3">
+        <v>2</v>
+      </c>
       <c r="Q70">
-        <f t="shared" si="5"/>
-        <v>52</v>
+        <f t="shared" si="7"/>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3930,22 +4140,24 @@
         <v>69</v>
       </c>
       <c r="B71" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="D71" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
       <c r="E71" s="7">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="F71" s="7"/>
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="F71" s="7">
+        <v>16</v>
+      </c>
       <c r="G71" s="7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H71" s="3">
         <v>2</v>
@@ -3959,10 +4171,12 @@
         <v>5</v>
       </c>
       <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
+      <c r="P71" s="3">
+        <v>1</v>
+      </c>
       <c r="Q71">
-        <f t="shared" si="5"/>
-        <v>37</v>
+        <f t="shared" si="7"/>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3970,20 +4184,22 @@
         <v>70</v>
       </c>
       <c r="B72" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="D72" s="7">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="E72" s="7">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="F72" s="7"/>
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="F72" s="7">
+        <v>14</v>
+      </c>
       <c r="G72" s="7">
         <v>50</v>
       </c>
@@ -4001,10 +4217,12 @@
         <v>5</v>
       </c>
       <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
+      <c r="P72" s="3">
+        <v>1</v>
+      </c>
       <c r="Q72">
-        <f t="shared" si="5"/>
-        <v>59</v>
+        <f t="shared" si="7"/>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4012,20 +4230,22 @@
         <v>71</v>
       </c>
       <c r="B73" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>150</v>
-      </c>
       <c r="D73" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="F73" s="7"/>
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="F73" s="7">
+        <v>14</v>
+      </c>
       <c r="G73" s="7">
         <v>45</v>
       </c>
@@ -4043,10 +4263,12 @@
         <v>5</v>
       </c>
       <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
+      <c r="P73" s="3">
+        <v>4</v>
+      </c>
       <c r="Q73">
-        <f t="shared" si="5"/>
-        <v>56</v>
+        <f t="shared" si="7"/>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4054,20 +4276,22 @@
         <v>72</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>152</v>
-      </c>
       <c r="D74" s="7">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="E74" s="7">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="F74" s="7"/>
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="F74" s="7">
+        <v>16</v>
+      </c>
       <c r="G74" s="7">
         <v>30</v>
       </c>
@@ -4087,10 +4311,12 @@
         <v>5</v>
       </c>
       <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
+      <c r="P74" s="3">
+        <v>4</v>
+      </c>
       <c r="Q74">
-        <f t="shared" si="5"/>
-        <v>44</v>
+        <f t="shared" si="7"/>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4098,20 +4324,22 @@
         <v>73</v>
       </c>
       <c r="B75" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="D75" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
       <c r="E75" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="F75" s="7"/>
+      <c r="F75" s="7">
+        <v>18</v>
+      </c>
       <c r="G75" s="7">
         <v>50</v>
       </c>
@@ -4131,8 +4359,8 @@
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
       <c r="Q75">
-        <f t="shared" si="5"/>
-        <v>61</v>
+        <f t="shared" si="7"/>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4140,22 +4368,24 @@
         <v>74</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>156</v>
-      </c>
       <c r="D76" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
       <c r="E76" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F76" s="7"/>
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="F76" s="7">
+        <v>16</v>
+      </c>
       <c r="G76" s="7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H76" s="3">
         <v>2</v>
@@ -4167,10 +4397,12 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
+      <c r="P76" s="3">
+        <v>6</v>
+      </c>
       <c r="Q76">
-        <f t="shared" si="5"/>
-        <v>32</v>
+        <f t="shared" si="7"/>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4178,20 +4410,22 @@
         <v>75</v>
       </c>
       <c r="B77" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>158</v>
-      </c>
       <c r="D77" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
       <c r="E77" s="7">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="F77" s="7"/>
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="F77" s="7">
+        <v>16</v>
+      </c>
       <c r="G77" s="7">
         <v>50</v>
       </c>
@@ -4209,10 +4443,12 @@
         <v>5</v>
       </c>
       <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
+      <c r="P77" s="3">
+        <v>2</v>
+      </c>
       <c r="Q77">
-        <f t="shared" si="5"/>
-        <v>61</v>
+        <f t="shared" si="7"/>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4220,20 +4456,22 @@
         <v>76</v>
       </c>
       <c r="B78" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>160</v>
-      </c>
       <c r="D78" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
       <c r="E78" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F78" s="7"/>
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="F78" s="7">
+        <v>20</v>
+      </c>
       <c r="G78" s="7">
         <v>40</v>
       </c>
@@ -4247,10 +4485,12 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
+      <c r="P78" s="3">
+        <v>2</v>
+      </c>
       <c r="Q78">
-        <f t="shared" si="5"/>
-        <v>42</v>
+        <f t="shared" si="7"/>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4258,20 +4498,22 @@
         <v>77</v>
       </c>
       <c r="B79" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>162</v>
-      </c>
       <c r="D79" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
       <c r="E79" s="7">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="F79" s="7"/>
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="F79" s="7">
+        <v>12</v>
+      </c>
       <c r="G79" s="7">
         <v>45</v>
       </c>
@@ -4289,10 +4531,12 @@
         <v>5</v>
       </c>
       <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
+      <c r="P79" s="3">
+        <v>5</v>
+      </c>
       <c r="Q79">
-        <f t="shared" si="5"/>
-        <v>57</v>
+        <f t="shared" si="7"/>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4300,20 +4544,22 @@
         <v>78</v>
       </c>
       <c r="B80" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>164</v>
-      </c>
       <c r="D80" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
       <c r="E80" s="7">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="F80" s="7"/>
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="F80" s="7">
+        <v>14</v>
+      </c>
       <c r="G80" s="7">
         <v>50</v>
       </c>
@@ -4331,10 +4577,12 @@
         <v>5</v>
       </c>
       <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
+      <c r="P80" s="3">
+        <v>2</v>
+      </c>
       <c r="Q80">
-        <f t="shared" si="5"/>
-        <v>58</v>
+        <f t="shared" si="7"/>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4342,20 +4590,22 @@
         <v>79</v>
       </c>
       <c r="B81" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>166</v>
-      </c>
       <c r="D81" s="7">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="E81" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F81" s="7"/>
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="F81" s="7">
+        <v>12</v>
+      </c>
       <c r="G81" s="7">
         <v>50</v>
       </c>
@@ -4371,10 +4621,12 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
+      <c r="P81" s="3">
+        <v>3</v>
+      </c>
       <c r="Q81">
-        <f t="shared" si="5"/>
-        <v>54</v>
+        <f t="shared" si="7"/>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4382,20 +4634,22 @@
         <v>80</v>
       </c>
       <c r="B82" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>168</v>
-      </c>
       <c r="D82" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
       <c r="E82" s="7">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="F82" s="7"/>
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="F82" s="7">
+        <v>14</v>
+      </c>
       <c r="G82" s="7">
         <v>50</v>
       </c>
@@ -4415,8 +4669,8 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82">
-        <f t="shared" si="5"/>
-        <v>60</v>
+        <f t="shared" si="7"/>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4424,20 +4678,22 @@
         <v>81</v>
       </c>
       <c r="B83" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>170</v>
-      </c>
       <c r="D83" s="7">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="E83" s="7">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="F83" s="7"/>
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="F83" s="7">
+        <v>20</v>
+      </c>
       <c r="G83" s="7">
         <v>30</v>
       </c>
@@ -4457,10 +4713,12 @@
         <v>5</v>
       </c>
       <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
+      <c r="P83" s="3">
+        <v>5</v>
+      </c>
       <c r="Q83">
-        <f t="shared" si="5"/>
-        <v>44</v>
+        <f t="shared" si="7"/>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4468,20 +4726,22 @@
         <v>82</v>
       </c>
       <c r="B84" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>172</v>
-      </c>
       <c r="D84" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
       <c r="E84" s="7">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="F84" s="7"/>
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="F84" s="7">
+        <v>18</v>
+      </c>
       <c r="G84" s="7">
         <v>40</v>
       </c>
@@ -4499,10 +4759,12 @@
         <v>5</v>
       </c>
       <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
+      <c r="P84" s="3">
+        <v>5</v>
+      </c>
       <c r="Q84">
-        <f t="shared" si="5"/>
-        <v>51</v>
+        <f t="shared" si="7"/>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4510,20 +4772,22 @@
         <v>83</v>
       </c>
       <c r="B85" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>174</v>
-      </c>
       <c r="D85" s="7">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="E85" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="F85" s="7"/>
+      <c r="F85" s="7">
+        <v>16</v>
+      </c>
       <c r="G85" s="7"/>
       <c r="H85" s="3">
         <v>2</v>
@@ -4543,8 +4807,8 @@
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
       <c r="Q85">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4552,20 +4816,22 @@
         <v>84</v>
       </c>
       <c r="B86" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>176</v>
-      </c>
       <c r="D86" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
       <c r="E86" s="7">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="F86" s="7"/>
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="F86" s="7">
+        <v>16</v>
+      </c>
       <c r="G86" s="7">
         <v>50</v>
       </c>
@@ -4583,10 +4849,12 @@
         <v>5</v>
       </c>
       <c r="O86" s="3"/>
-      <c r="P86" s="3"/>
+      <c r="P86" s="3">
+        <v>1</v>
+      </c>
       <c r="Q86">
-        <f t="shared" si="5"/>
-        <v>62</v>
+        <f t="shared" si="7"/>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4594,20 +4862,22 @@
         <v>85</v>
       </c>
       <c r="B87" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>178</v>
-      </c>
       <c r="D87" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
       <c r="E87" s="7">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="F87" s="7"/>
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="F87" s="7">
+        <v>18</v>
+      </c>
       <c r="G87" s="7">
         <v>40</v>
       </c>
@@ -4625,10 +4895,12 @@
         <v>5</v>
       </c>
       <c r="O87" s="3"/>
-      <c r="P87" s="3"/>
+      <c r="P87" s="3">
+        <v>5</v>
+      </c>
       <c r="Q87">
-        <f t="shared" si="5"/>
-        <v>51</v>
+        <f t="shared" si="7"/>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4636,20 +4908,22 @@
         <v>86</v>
       </c>
       <c r="B88" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>180</v>
-      </c>
       <c r="D88" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
       <c r="E88" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F88" s="7"/>
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F88" s="7">
+        <v>18</v>
+      </c>
       <c r="G88" s="7">
         <v>40</v>
       </c>
@@ -4663,13 +4937,20 @@
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
-      <c r="P88" s="3"/>
+      <c r="P88" s="3">
+        <v>4</v>
+      </c>
       <c r="Q88">
-        <f t="shared" si="5"/>
-        <v>42</v>
+        <f t="shared" si="7"/>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q1">
+    <sortState ref="A2:Q88">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/OYM/_DocumentosComunes/BD.xlsx
+++ b/OYM/_DocumentosComunes/BD.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_DESARROLLO\_DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DESARROLLO\DoCUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2135DB8E-44B8-44CA-B3B5-3EAB7F535260}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$Q$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$88</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -583,7 +584,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1113,18 +1114,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J59" sqref="J59"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -1261,8 +1262,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F3" s="7">
         <v>10</v>
@@ -1283,7 +1283,7 @@
       <c r="P3" s="3"/>
       <c r="Q3">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1449,17 +1449,17 @@
         <v>19</v>
       </c>
       <c r="D8" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7">
-        <v>18</v>
-      </c>
-      <c r="G8" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="G8" s="7">
+        <v>20</v>
+      </c>
       <c r="H8" s="3">
         <v>2</v>
       </c>
@@ -1473,7 +1473,7 @@
       <c r="P8" s="3"/>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1699,14 +1699,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="7">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F14" s="7">
         <v>14</v>
       </c>
       <c r="G14" s="7">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H14" s="3">
         <v>2</v>
@@ -1725,7 +1724,7 @@
       </c>
       <c r="Q14">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2111,18 +2110,16 @@
         <v>51</v>
       </c>
       <c r="D24" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E24" s="7">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F24" s="7">
         <v>20</v>
       </c>
       <c r="G24" s="7">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H24" s="3">
         <v>2</v>
@@ -2141,7 +2138,7 @@
       </c>
       <c r="Q24">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2155,15 +2152,13 @@
         <v>53</v>
       </c>
       <c r="D25" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E25" s="7">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F25" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G25" s="7">
         <v>40</v>
@@ -2187,7 +2182,7 @@
       </c>
       <c r="Q25">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2381,14 +2376,13 @@
         <v>8</v>
       </c>
       <c r="E30" s="7">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F30" s="7">
         <v>20</v>
       </c>
       <c r="G30" s="7">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H30" s="3">
         <v>2</v>
@@ -2407,7 +2401,7 @@
       <c r="P30" s="3"/>
       <c r="Q30">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2764,14 +2758,13 @@
         <v>8</v>
       </c>
       <c r="E39" s="7">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F39" s="7">
         <v>12</v>
       </c>
       <c r="G39" s="7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H39" s="3">
         <v>2</v>
@@ -2792,7 +2785,7 @@
       </c>
       <c r="Q39">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="18" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2806,16 +2799,16 @@
         <v>83</v>
       </c>
       <c r="D40" s="16">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="F40" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="F40" s="16">
+        <v>12</v>
+      </c>
       <c r="G40" s="16">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H40" s="17">
         <v>2</v>
@@ -2832,7 +2825,7 @@
       <c r="P40" s="17"/>
       <c r="Q40" s="18">
         <f t="shared" si="4"/>
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3104,15 +3097,13 @@
         <v>97</v>
       </c>
       <c r="D47" s="7">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E47" s="7">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F47" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G47" s="7">
         <v>40</v>
@@ -3134,7 +3125,7 @@
       </c>
       <c r="Q47">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3188,15 +3179,13 @@
         <v>101</v>
       </c>
       <c r="D49" s="7">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E49" s="7">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F49" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G49" s="7">
         <v>50</v>
@@ -3220,7 +3209,7 @@
       </c>
       <c r="Q49">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3326,14 +3315,13 @@
         <v>8</v>
       </c>
       <c r="E52" s="7">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F52" s="7">
         <v>12</v>
       </c>
       <c r="G52" s="7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H52" s="3">
         <v>2</v>
@@ -3352,7 +3340,7 @@
       </c>
       <c r="Q52">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3410,15 +3398,13 @@
         <v>111</v>
       </c>
       <c r="D54" s="7">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E54" s="7">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F54" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G54" s="7">
         <v>50</v>
@@ -3438,7 +3424,7 @@
       </c>
       <c r="Q54">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3500,11 +3486,10 @@
         <v>10</v>
       </c>
       <c r="E56" s="7">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F56" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G56" s="7">
         <v>50</v>
@@ -3528,7 +3513,7 @@
       </c>
       <c r="Q56">
         <f t="shared" si="4"/>
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3546,14 +3531,13 @@
         <v>8</v>
       </c>
       <c r="E57" s="7">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F57" s="7">
         <v>20</v>
       </c>
       <c r="G57" s="7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H57" s="3">
         <v>2</v>
@@ -3572,7 +3556,7 @@
       </c>
       <c r="Q57">
         <f t="shared" si="4"/>
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3586,17 +3570,17 @@
         <v>119</v>
       </c>
       <c r="D58" s="7">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E58" s="7">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F58" s="7">
-        <v>10</v>
-      </c>
-      <c r="G58" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="G58" s="7">
+        <v>20</v>
+      </c>
       <c r="H58" s="3">
         <v>2</v>
       </c>
@@ -3612,7 +3596,7 @@
       <c r="P58" s="3"/>
       <c r="Q58">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3626,18 +3610,16 @@
         <v>121</v>
       </c>
       <c r="D59" s="7">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E59" s="7">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F59" s="7">
         <v>10</v>
       </c>
       <c r="G59" s="7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H59" s="3">
         <v>2</v>
@@ -3656,7 +3638,7 @@
       <c r="P59" s="3"/>
       <c r="Q59">
         <f t="shared" si="4"/>
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:17" s="18" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3670,16 +3652,14 @@
         <v>123</v>
       </c>
       <c r="D60" s="16">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H60" s="17">
         <v>2</v>
@@ -3696,7 +3676,7 @@
       <c r="P60" s="17"/>
       <c r="Q60" s="18">
         <f t="shared" si="4"/>
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3758,14 +3738,13 @@
         <v>8</v>
       </c>
       <c r="E62" s="7">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F62" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G62" s="7">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H62" s="3">
         <v>2</v>
@@ -3784,7 +3763,7 @@
       </c>
       <c r="Q62">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3798,15 +3777,13 @@
         <v>129</v>
       </c>
       <c r="D63" s="7">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E63" s="7">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F63" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G63" s="7">
         <v>50</v>
@@ -3830,7 +3807,7 @@
       </c>
       <c r="Q63">
         <f t="shared" si="4"/>
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4550,15 +4527,13 @@
         <v>163</v>
       </c>
       <c r="D80" s="7">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E80" s="7">
-        <f t="shared" si="6"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F80" s="7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G80" s="7">
         <v>50</v>
@@ -4582,7 +4557,7 @@
       </c>
       <c r="Q80">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4600,11 +4575,10 @@
         <v>10</v>
       </c>
       <c r="E81" s="7">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F81" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G81" s="7">
         <v>50</v>
@@ -4626,7 +4600,7 @@
       </c>
       <c r="Q81">
         <f t="shared" si="7"/>
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4640,15 +4614,13 @@
         <v>167</v>
       </c>
       <c r="D82" s="7">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E82" s="7">
-        <f t="shared" si="6"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F82" s="7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G82" s="7">
         <v>50</v>
@@ -4670,7 +4642,7 @@
       <c r="P82" s="3"/>
       <c r="Q82">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4914,15 +4886,13 @@
         <v>179</v>
       </c>
       <c r="D88" s="7">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E88" s="7">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F88" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G88" s="7">
         <v>40</v>
@@ -4942,11 +4912,11 @@
       </c>
       <c r="Q88">
         <f t="shared" si="7"/>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1">
+  <autoFilter ref="A1:Q1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:Q88">
       <sortCondition ref="A1"/>
     </sortState>

--- a/OYM/_DocumentosComunes/BD.xlsx
+++ b/OYM/_DocumentosComunes/BD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DESARROLLO\DoCUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2135DB8E-44B8-44CA-B3B5-3EAB7F535260}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A333F55A-2414-4A26-9793-78D4BD7D619B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -610,7 +610,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,12 +626,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -705,17 +699,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1121,8 +1106,8 @@
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D85" sqref="D85:G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1296,14 +1281,8 @@
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E4" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="3">
@@ -1319,7 +1298,7 @@
       <c r="P4" s="3"/>
       <c r="Q4">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1332,14 +1311,8 @@
       <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E5" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="3">
@@ -1355,7 +1328,7 @@
       <c r="P5" s="3"/>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1368,14 +1341,8 @@
       <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E6" s="7">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="3">
@@ -1393,7 +1360,7 @@
       <c r="P6" s="3"/>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1407,15 +1374,13 @@
         <v>17</v>
       </c>
       <c r="D7" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" s="7">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F7" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G7" s="7">
         <v>40</v>
@@ -1435,7 +1400,7 @@
       <c r="P7" s="3"/>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1458,7 +1423,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H8" s="3">
         <v>2</v>
@@ -1473,7 +1438,7 @@
       <c r="P8" s="3"/>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1581,11 +1546,10 @@
         <v>8</v>
       </c>
       <c r="E11" s="7">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G11" s="7">
         <v>40</v>
@@ -1620,14 +1584,8 @@
       <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E12" s="7">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="3">
@@ -1645,7 +1603,7 @@
       <c r="P12" s="3"/>
       <c r="Q12">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1658,14 +1616,8 @@
       <c r="C13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E13" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="3">
@@ -1681,7 +1633,7 @@
       <c r="P13" s="3"/>
       <c r="Q13">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1737,14 +1689,8 @@
       <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E15" s="7">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="3">
@@ -1762,7 +1708,7 @@
       <c r="P15" s="3"/>
       <c r="Q15">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1826,13 +1772,14 @@
         <v>8</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F17" s="7">
-        <v>16</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="G17" s="7">
+        <v>40</v>
+      </c>
       <c r="H17" s="3">
         <v>2</v>
       </c>
@@ -1848,7 +1795,7 @@
       <c r="P17" s="3"/>
       <c r="Q17">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1861,17 +1808,9 @@
       <c r="C18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E18" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>4</v>
-      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="3">
         <v>2</v>
@@ -1886,7 +1825,7 @@
       <c r="P18" s="3"/>
       <c r="Q18">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1900,15 +1839,13 @@
         <v>41</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F19" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G19" s="7">
         <v>40</v>
@@ -1941,14 +1878,8 @@
       <c r="C20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E20" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="3">
@@ -1964,7 +1895,7 @@
       <c r="P20" s="3"/>
       <c r="Q20">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1982,13 +1913,14 @@
         <v>8</v>
       </c>
       <c r="E21" s="7">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F21" s="7">
         <v>12</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7">
+        <v>40</v>
+      </c>
       <c r="H21" s="3">
         <v>2</v>
       </c>
@@ -2006,7 +1938,7 @@
       <c r="P21" s="3"/>
       <c r="Q21">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2024,11 +1956,10 @@
         <v>8</v>
       </c>
       <c r="E22" s="7">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7">
         <v>50</v>
@@ -2196,18 +2127,16 @@
         <v>55</v>
       </c>
       <c r="D26" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E26" s="7">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F26" s="7">
         <v>16</v>
       </c>
       <c r="G26" s="7">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H26" s="3">
         <v>2</v>
@@ -2239,17 +2168,9 @@
       <c r="C27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E27" s="7">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F27" s="7">
-        <v>14</v>
-      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="3">
         <v>2</v>
@@ -2266,7 +2187,7 @@
       <c r="P27" s="3"/>
       <c r="Q27">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2414,14 +2335,8 @@
       <c r="C31" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E31" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="3">
@@ -2437,7 +2352,7 @@
       <c r="P31" s="3"/>
       <c r="Q31">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2450,14 +2365,8 @@
       <c r="C32" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E32" s="7">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="3">
@@ -2479,7 +2388,7 @@
       <c r="P32" s="3"/>
       <c r="Q32">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2536,17 +2445,9 @@
       <c r="C34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E34" s="7">
-        <f t="shared" ref="E34:E65" si="3">M34+N34+O34+P34</f>
-        <v>5</v>
-      </c>
-      <c r="F34" s="7">
-        <v>20</v>
-      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="3">
         <v>2</v>
@@ -2562,8 +2463,8 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34">
-        <f t="shared" ref="Q34:Q65" si="4">D34+E34+F34+G34+0</f>
-        <v>33</v>
+        <f t="shared" ref="Q34:Q65" si="3">D34+E34+F34+G34+0</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2581,7 +2482,7 @@
         <v>8</v>
       </c>
       <c r="E35" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E34:E65" si="4">M35+N35+O35+P35</f>
         <v>6</v>
       </c>
       <c r="F35" s="7">
@@ -2606,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
     </row>
@@ -2625,11 +2526,10 @@
         <v>8</v>
       </c>
       <c r="E36" s="7">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F36" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G36" s="7">
         <v>40</v>
@@ -2652,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
@@ -2670,7 +2570,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="F37" s="11">
@@ -2697,7 +2597,7 @@
         <v>4</v>
       </c>
       <c r="Q37" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
     </row>
@@ -2716,12 +2616,14 @@
         <v>8</v>
       </c>
       <c r="E38" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="F38" s="7"/>
+      <c r="F38" s="7">
+        <v>10</v>
+      </c>
       <c r="G38" s="7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H38" s="3">
         <v>2</v>
@@ -2739,7 +2641,7 @@
         <v>7</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
     </row>
@@ -2784,47 +2686,47 @@
         <v>3</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="18" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="14">
+    <row r="40" spans="1:17" s="15" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
         <v>38</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="16">
-        <v>10</v>
-      </c>
-      <c r="E40" s="16">
+      <c r="D40" s="7">
+        <v>10</v>
+      </c>
+      <c r="E40" s="7">
         <v>20</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="7">
         <v>12</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="7">
         <v>45</v>
       </c>
-      <c r="H40" s="17">
-        <v>2</v>
-      </c>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17">
+      <c r="H40" s="14">
+        <v>2</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14">
         <v>3</v>
       </c>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="18">
-        <f t="shared" si="4"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="15">
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
     </row>
@@ -2843,7 +2745,7 @@
         <v>8</v>
       </c>
       <c r="E41" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F41" s="7">
@@ -2870,7 +2772,7 @@
         <v>2</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
     </row>
@@ -2889,11 +2791,10 @@
         <v>8</v>
       </c>
       <c r="E42" s="7">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F42" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G42" s="7">
         <v>50</v>
@@ -2914,7 +2815,7 @@
         <v>5</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
     </row>
@@ -2933,14 +2834,13 @@
         <v>8</v>
       </c>
       <c r="E43" s="7">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F43" s="7">
         <v>12</v>
       </c>
       <c r="G43" s="7">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H43" s="3">
         <v>2</v>
@@ -2956,7 +2856,7 @@
         <v>5</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
@@ -2970,14 +2870,8 @@
       <c r="C44" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="7">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="E44" s="7">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="3">
@@ -2996,8 +2890,8 @@
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3015,7 +2909,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="F45" s="7">
@@ -3042,7 +2936,7 @@
         <v>2</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
     </row>
@@ -3056,17 +2950,9 @@
       <c r="C46" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="7">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="E46" s="7">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="F46" s="7">
-        <v>18</v>
-      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="3">
         <v>2</v>
@@ -3082,8 +2968,8 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46">
-        <f t="shared" si="4"/>
-        <v>31</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3124,7 +3010,7 @@
         <v>7</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
     </row>
@@ -3138,17 +3024,9 @@
       <c r="C48" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="7">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="E48" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="7">
-        <v>18</v>
-      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="3">
         <v>2</v>
@@ -3164,8 +3042,8 @@
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48">
-        <f t="shared" si="4"/>
-        <v>28</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3208,7 +3086,7 @@
         <v>4</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -3227,11 +3105,10 @@
         <v>8</v>
       </c>
       <c r="E50" s="7">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F50" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G50" s="7">
         <v>50</v>
@@ -3252,7 +3129,7 @@
         <v>3</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
     </row>
@@ -3271,7 +3148,7 @@
         <v>8</v>
       </c>
       <c r="E51" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="F51" s="7">
@@ -3296,7 +3173,7 @@
         <v>10</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
     </row>
@@ -3339,7 +3216,7 @@
         <v>5</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
     </row>
@@ -3358,11 +3235,10 @@
         <v>8</v>
       </c>
       <c r="E53" s="7">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F53" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G53" s="7">
         <v>35</v>
@@ -3383,7 +3259,7 @@
         <v>2</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
     </row>
@@ -3423,7 +3299,7 @@
         <v>4</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -3442,11 +3318,10 @@
         <v>8</v>
       </c>
       <c r="E55" s="7">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F55" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G55" s="7">
         <v>40</v>
@@ -3467,7 +3342,7 @@
         <v>5</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
     </row>
@@ -3512,7 +3387,7 @@
         <v>2</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -3555,7 +3430,7 @@
         <v>2</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
     </row>
@@ -3595,7 +3470,7 @@
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
     </row>
@@ -3637,45 +3512,47 @@
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="18" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="14">
+    <row r="60" spans="1:17" s="15" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
         <v>58</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="16">
-        <v>10</v>
-      </c>
-      <c r="E60" s="16">
+      <c r="D60" s="7">
+        <v>10</v>
+      </c>
+      <c r="E60" s="7">
         <v>20</v>
       </c>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16">
-        <v>41</v>
-      </c>
-      <c r="H60" s="17">
-        <v>2</v>
-      </c>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17">
+      <c r="F60" s="7">
+        <v>10</v>
+      </c>
+      <c r="G60" s="7">
+        <v>31</v>
+      </c>
+      <c r="H60" s="14">
+        <v>2</v>
+      </c>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14">
         <v>3</v>
       </c>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="18">
-        <f t="shared" si="4"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="15">
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
     </row>
@@ -3694,11 +3571,10 @@
         <v>8</v>
       </c>
       <c r="E61" s="7">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F61" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G61" s="7">
         <v>40</v>
@@ -3719,7 +3595,7 @@
         <v>3</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
     </row>
@@ -3762,7 +3638,7 @@
         <v>6</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
     </row>
@@ -3806,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -3825,11 +3701,10 @@
         <v>8</v>
       </c>
       <c r="E64" s="7">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F64" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G64" s="7">
         <v>50</v>
@@ -3850,7 +3725,7 @@
         <v>3</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
     </row>
@@ -3864,17 +3739,9 @@
       <c r="C65" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D65" s="7">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="E65" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F65" s="7">
-        <v>16</v>
-      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="3">
         <v>2</v>
@@ -3890,8 +3757,8 @@
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
       <c r="Q65">
-        <f t="shared" si="4"/>
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3904,17 +3771,9 @@
       <c r="C66" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D66" s="7">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="E66" s="7">
-        <f t="shared" ref="E66:E88" si="6">M66+N66+O66+P66</f>
-        <v>5</v>
-      </c>
-      <c r="F66" s="7">
-        <v>12</v>
-      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="3">
         <v>2</v>
@@ -3930,8 +3789,8 @@
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
       <c r="Q66">
-        <f t="shared" ref="Q66:Q88" si="7">D66+E66+F66+G66+0</f>
-        <v>25</v>
+        <f t="shared" ref="Q66:Q88" si="6">D66+E66+F66+G66+0</f>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3949,7 +3808,7 @@
         <v>8</v>
       </c>
       <c r="E67" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E66:E87" si="7">M67+N67+O67+P67</f>
         <v>12</v>
       </c>
       <c r="F67" s="7">
@@ -3976,7 +3835,7 @@
         <v>3</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
     </row>
@@ -3995,7 +3854,7 @@
         <v>8</v>
       </c>
       <c r="E68" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="F68" s="7">
@@ -4020,7 +3879,7 @@
         <v>7</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
     </row>
@@ -4039,7 +3898,7 @@
         <v>8</v>
       </c>
       <c r="E69" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="F69" s="7">
@@ -4066,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
     </row>
@@ -4081,15 +3940,14 @@
         <v>143</v>
       </c>
       <c r="D70" s="7">
-        <f t="shared" ref="D70:D88" si="8">H70+I70+J70+K70+L70+6</f>
+        <f t="shared" ref="D70:D87" si="8">H70+I70+J70+K70+L70+6</f>
         <v>8</v>
       </c>
       <c r="E70" s="7">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F70" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G70" s="7">
         <v>50</v>
@@ -4108,7 +3966,7 @@
         <v>2</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
     </row>
@@ -4123,15 +3981,13 @@
         <v>145</v>
       </c>
       <c r="D71" s="7">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E71" s="7">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F71" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G71" s="7">
         <v>40</v>
@@ -4152,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
     </row>
@@ -4171,11 +4027,10 @@
         <v>10</v>
       </c>
       <c r="E72" s="7">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F72" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G72" s="7">
         <v>50</v>
@@ -4198,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
     </row>
@@ -4217,7 +4072,7 @@
         <v>8</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="F73" s="7">
@@ -4244,7 +4099,7 @@
         <v>4</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
     </row>
@@ -4263,7 +4118,7 @@
         <v>10</v>
       </c>
       <c r="E74" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="F74" s="7">
@@ -4292,7 +4147,7 @@
         <v>4</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
     </row>
@@ -4311,11 +4166,10 @@
         <v>8</v>
       </c>
       <c r="E75" s="7">
-        <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F75" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G75" s="7">
         <v>50</v>
@@ -4336,7 +4190,7 @@
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
       <c r="Q75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>85</v>
       </c>
     </row>
@@ -4351,15 +4205,13 @@
         <v>155</v>
       </c>
       <c r="D76" s="7">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E76" s="7">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F76" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G76" s="7">
         <v>40</v>
@@ -4378,7 +4230,7 @@
         <v>6</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
     </row>
@@ -4397,7 +4249,7 @@
         <v>8</v>
       </c>
       <c r="E77" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="F77" s="7">
@@ -4424,7 +4276,7 @@
         <v>2</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>85</v>
       </c>
     </row>
@@ -4443,11 +4295,10 @@
         <v>8</v>
       </c>
       <c r="E78" s="7">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F78" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G78" s="7">
         <v>40</v>
@@ -4466,7 +4317,7 @@
         <v>2</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
     </row>
@@ -4485,7 +4336,7 @@
         <v>8</v>
       </c>
       <c r="E79" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="F79" s="7">
@@ -4512,7 +4363,7 @@
         <v>5</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
     </row>
@@ -4527,13 +4378,13 @@
         <v>163</v>
       </c>
       <c r="D80" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E80" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F80" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G80" s="7">
         <v>50</v>
@@ -4556,8 +4407,8 @@
         <v>2</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="7"/>
-        <v>92</v>
+        <f t="shared" si="6"/>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4599,7 +4450,7 @@
         <v>3</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>95</v>
       </c>
     </row>
@@ -4641,7 +4492,7 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4660,7 +4511,7 @@
         <v>10</v>
       </c>
       <c r="E83" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="F83" s="7">
@@ -4689,7 +4540,7 @@
         <v>5</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
     </row>
@@ -4708,7 +4559,7 @@
         <v>8</v>
       </c>
       <c r="E84" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="F84" s="7">
@@ -4735,7 +4586,7 @@
         <v>5</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
     </row>
@@ -4749,17 +4600,9 @@
       <c r="C85" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D85" s="7">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="E85" s="7">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="F85" s="7">
-        <v>16</v>
-      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="3">
         <v>2</v>
@@ -4779,8 +4622,8 @@
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
       <c r="Q85">
-        <f t="shared" si="7"/>
-        <v>36</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4798,7 +4641,7 @@
         <v>8</v>
       </c>
       <c r="E86" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="F86" s="7">
@@ -4825,7 +4668,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>85</v>
       </c>
     </row>
@@ -4844,7 +4687,7 @@
         <v>8</v>
       </c>
       <c r="E87" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="F87" s="7">
@@ -4871,7 +4714,7 @@
         <v>5</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
     </row>
@@ -4911,7 +4754,7 @@
         <v>4</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
     </row>
